--- a/Planning/Greenhouse and Raised Beds Map.xlsx
+++ b/Planning/Greenhouse and Raised Beds Map.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="212">
   <si>
     <t>SAMRAC08_GR</t>
   </si>
@@ -747,19 +747,13 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="146">
     <border>
@@ -2581,8 +2575,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="553">
+  <cellStyleXfs count="557">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3259,12 +3257,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3518,6 +3510,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3530,94 +3609,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3656,24 +3666,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3776,8 +3768,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="553">
+  <cellStyles count="557">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4054,6 +4052,8 @@
     <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4330,6 +4330,8 @@
     <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4665,24 +4667,24 @@
   <dimension ref="C1:BC21"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:AF1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="3:55" ht="35" customHeight="1">
-      <c r="W1" s="131" t="s">
+      <c r="W1" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
+      <c r="X1" s="159"/>
+      <c r="Y1" s="159"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="159"/>
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="159"/>
+      <c r="AD1" s="159"/>
+      <c r="AE1" s="159"/>
+      <c r="AF1" s="159"/>
     </row>
     <row r="2" spans="3:55" ht="35" customHeight="1" thickBot="1"/>
     <row r="3" spans="3:55" ht="35" customHeight="1" thickTop="1">
@@ -5764,183 +5766,194 @@
       <c r="AX14" s="25"/>
       <c r="AY14" s="1"/>
       <c r="AZ14" s="35"/>
-      <c r="BA14" s="133" t="s">
+      <c r="BA14" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="BB14" s="134"/>
-      <c r="BC14" s="135"/>
+      <c r="BB14" s="128"/>
+      <c r="BC14" s="129"/>
     </row>
     <row r="15" spans="3:55" ht="35" customHeight="1" thickTop="1">
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="157" t="s">
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="160"/>
-      <c r="M15" s="161" t="s">
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="158"/>
-      <c r="O15" s="158"/>
-      <c r="P15" s="158"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="157" t="s">
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="S15" s="158"/>
-      <c r="T15" s="158"/>
-      <c r="U15" s="158"/>
-      <c r="V15" s="160"/>
-      <c r="W15" s="161" t="s">
+      <c r="S15" s="152"/>
+      <c r="T15" s="152"/>
+      <c r="U15" s="152"/>
+      <c r="V15" s="153"/>
+      <c r="W15" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="X15" s="158"/>
-      <c r="Y15" s="158"/>
-      <c r="Z15" s="158"/>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="142" t="s">
+      <c r="X15" s="152"/>
+      <c r="Y15" s="152"/>
+      <c r="Z15" s="152"/>
+      <c r="AA15" s="153"/>
+      <c r="AB15" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="AC15" s="143"/>
-      <c r="AD15" s="143"/>
-      <c r="AE15" s="143"/>
-      <c r="AF15" s="144"/>
-      <c r="AG15" s="147" t="s">
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="137"/>
+      <c r="AF15" s="138"/>
+      <c r="AG15" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="AH15" s="143"/>
-      <c r="AI15" s="143"/>
-      <c r="AJ15" s="143"/>
-      <c r="AK15" s="144"/>
-      <c r="AL15" s="147" t="s">
+      <c r="AH15" s="137"/>
+      <c r="AI15" s="137"/>
+      <c r="AJ15" s="137"/>
+      <c r="AK15" s="138"/>
+      <c r="AL15" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="AM15" s="143"/>
-      <c r="AN15" s="143"/>
-      <c r="AO15" s="143"/>
-      <c r="AP15" s="162"/>
-      <c r="AQ15" s="152" t="s">
+      <c r="AM15" s="137"/>
+      <c r="AN15" s="137"/>
+      <c r="AO15" s="137"/>
+      <c r="AP15" s="155"/>
+      <c r="AQ15" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="AR15" s="153"/>
-      <c r="AS15" s="153"/>
-      <c r="AT15" s="153"/>
-      <c r="AU15" s="154"/>
-      <c r="AV15" s="155" t="s">
+      <c r="AR15" s="147"/>
+      <c r="AS15" s="147"/>
+      <c r="AT15" s="147"/>
+      <c r="AU15" s="148"/>
+      <c r="AV15" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="AW15" s="153"/>
-      <c r="AX15" s="153"/>
-      <c r="AY15" s="153"/>
-      <c r="AZ15" s="156"/>
-      <c r="BA15" s="136"/>
-      <c r="BB15" s="137"/>
-      <c r="BC15" s="138"/>
+      <c r="AW15" s="147"/>
+      <c r="AX15" s="147"/>
+      <c r="AY15" s="147"/>
+      <c r="AZ15" s="150"/>
+      <c r="BA15" s="130"/>
+      <c r="BB15" s="131"/>
+      <c r="BC15" s="132"/>
     </row>
     <row r="16" spans="3:55" ht="35" customHeight="1" thickBot="1">
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="145" t="s">
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="146"/>
-      <c r="N16" s="146"/>
-      <c r="O16" s="146"/>
-      <c r="P16" s="146"/>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="145" t="s">
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
+      <c r="N16" s="140"/>
+      <c r="O16" s="140"/>
+      <c r="P16" s="140"/>
+      <c r="Q16" s="140"/>
+      <c r="R16" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="S16" s="146"/>
-      <c r="T16" s="146"/>
-      <c r="U16" s="146"/>
-      <c r="V16" s="146"/>
-      <c r="W16" s="146"/>
-      <c r="X16" s="146"/>
-      <c r="Y16" s="146"/>
-      <c r="Z16" s="146"/>
-      <c r="AA16" s="146"/>
-      <c r="AB16" s="148" t="s">
+      <c r="S16" s="140"/>
+      <c r="T16" s="140"/>
+      <c r="U16" s="140"/>
+      <c r="V16" s="140"/>
+      <c r="W16" s="140"/>
+      <c r="X16" s="140"/>
+      <c r="Y16" s="140"/>
+      <c r="Z16" s="140"/>
+      <c r="AA16" s="140"/>
+      <c r="AB16" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="AC16" s="149"/>
-      <c r="AD16" s="149"/>
-      <c r="AE16" s="149"/>
-      <c r="AF16" s="149"/>
-      <c r="AG16" s="149"/>
-      <c r="AH16" s="149"/>
-      <c r="AI16" s="149"/>
-      <c r="AJ16" s="149"/>
-      <c r="AK16" s="149"/>
-      <c r="AL16" s="149"/>
-      <c r="AM16" s="149"/>
-      <c r="AN16" s="149"/>
-      <c r="AO16" s="149"/>
-      <c r="AP16" s="150"/>
-      <c r="AQ16" s="145" t="s">
+      <c r="AC16" s="143"/>
+      <c r="AD16" s="143"/>
+      <c r="AE16" s="143"/>
+      <c r="AF16" s="143"/>
+      <c r="AG16" s="143"/>
+      <c r="AH16" s="143"/>
+      <c r="AI16" s="143"/>
+      <c r="AJ16" s="143"/>
+      <c r="AK16" s="143"/>
+      <c r="AL16" s="143"/>
+      <c r="AM16" s="143"/>
+      <c r="AN16" s="143"/>
+      <c r="AO16" s="143"/>
+      <c r="AP16" s="144"/>
+      <c r="AQ16" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="AR16" s="146"/>
-      <c r="AS16" s="146"/>
-      <c r="AT16" s="146"/>
-      <c r="AU16" s="146"/>
-      <c r="AV16" s="146"/>
-      <c r="AW16" s="146"/>
-      <c r="AX16" s="146"/>
-      <c r="AY16" s="146"/>
-      <c r="AZ16" s="151"/>
-      <c r="BA16" s="139"/>
-      <c r="BB16" s="140"/>
-      <c r="BC16" s="141"/>
-    </row>
-    <row r="17" spans="3:7" ht="35" customHeight="1" thickTop="1"/>
-    <row r="18" spans="3:7" ht="35" customHeight="1">
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
+      <c r="AR16" s="140"/>
+      <c r="AS16" s="140"/>
+      <c r="AT16" s="140"/>
+      <c r="AU16" s="140"/>
+      <c r="AV16" s="140"/>
+      <c r="AW16" s="140"/>
+      <c r="AX16" s="140"/>
+      <c r="AY16" s="140"/>
+      <c r="AZ16" s="145"/>
+      <c r="BA16" s="133"/>
+      <c r="BB16" s="134"/>
+      <c r="BC16" s="135"/>
+    </row>
+    <row r="17" spans="3:11" ht="35" customHeight="1" thickTop="1"/>
+    <row r="18" spans="3:11" ht="35" customHeight="1">
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="3:7" ht="35" customHeight="1">
+    <row r="19" spans="3:11" ht="35" customHeight="1">
       <c r="C19" s="11"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
       <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="3:7" ht="35" customHeight="1">
+      <c r="K19">
+        <f>COUNTIF(C3:AZ14,"*")</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="35" customHeight="1">
       <c r="C20" s="11"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="3:7" ht="35" customHeight="1">
+    <row r="21" spans="3:11" ht="35" customHeight="1">
       <c r="C21" s="11"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="W1:AF1"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C15:G15"/>
     <mergeCell ref="BA14:BC16"/>
     <mergeCell ref="AB15:AF15"/>
     <mergeCell ref="H16:Q16"/>
@@ -5955,13 +5968,6 @@
     <mergeCell ref="R15:V15"/>
     <mergeCell ref="W15:AA15"/>
     <mergeCell ref="AL15:AP15"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="W1:AF1"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C15:G15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions verticalCentered="1"/>
@@ -6626,72 +6632,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:BG34"/>
+  <dimension ref="C1:BG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="AI9" sqref="AI9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="5:59" ht="35" customHeight="1">
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="131" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="158" t="s">
         <v>211</v>
       </c>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="131"/>
-      <c r="AH1" s="131"/>
-      <c r="AI1" s="131"/>
-      <c r="AJ1" s="131"/>
-      <c r="AK1" s="131"/>
-      <c r="AL1" s="131"/>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="158"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="158"/>
+      <c r="AJ1" s="158"/>
+      <c r="AK1" s="158"/>
+      <c r="AL1" s="158"/>
+      <c r="AM1" s="158"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
     </row>
     <row r="2" spans="5:59" ht="35" customHeight="1" thickBot="1"/>
     <row r="3" spans="5:59" ht="35" customHeight="1" thickTop="1">
@@ -6745,7 +6751,7 @@
       <c r="AZ3" s="14"/>
       <c r="BA3" s="5"/>
       <c r="BB3" s="15"/>
-      <c r="BC3" s="44"/>
+      <c r="BC3" s="42"/>
       <c r="BD3" s="5"/>
       <c r="BE3" s="14"/>
       <c r="BF3" s="5"/>
@@ -6817,7 +6823,7 @@
       <c r="AY4" s="12"/>
       <c r="AZ4" s="12"/>
       <c r="BA4" s="12"/>
-      <c r="BB4" s="48"/>
+      <c r="BB4" s="46"/>
       <c r="BC4" s="3"/>
       <c r="BD4" s="12"/>
       <c r="BE4" s="12"/>
@@ -6889,7 +6895,7 @@
       <c r="AZ5" s="17"/>
       <c r="BA5" s="8"/>
       <c r="BB5" s="16"/>
-      <c r="BC5" s="45"/>
+      <c r="BC5" s="43"/>
       <c r="BD5" s="8"/>
       <c r="BE5" s="17"/>
       <c r="BF5" s="8"/>
@@ -6960,7 +6966,7 @@
       <c r="AZ6" s="20"/>
       <c r="BA6" s="9"/>
       <c r="BB6" s="21"/>
-      <c r="BC6" s="46"/>
+      <c r="BC6" s="44"/>
       <c r="BD6" s="9"/>
       <c r="BE6" s="20"/>
       <c r="BF6" s="9"/>
@@ -7030,7 +7036,7 @@
       <c r="AY7" s="12"/>
       <c r="AZ7" s="12"/>
       <c r="BA7" s="12"/>
-      <c r="BB7" s="49"/>
+      <c r="BB7" s="47"/>
       <c r="BC7" s="3"/>
       <c r="BD7" s="12"/>
       <c r="BE7" s="12"/>
@@ -7100,7 +7106,7 @@
       <c r="AZ8" s="17"/>
       <c r="BA8" s="8"/>
       <c r="BB8" s="16"/>
-      <c r="BC8" s="45"/>
+      <c r="BC8" s="43"/>
       <c r="BD8" s="8"/>
       <c r="BE8" s="17"/>
       <c r="BF8" s="8"/>
@@ -7175,7 +7181,7 @@
       <c r="AZ9" s="20"/>
       <c r="BA9" s="9"/>
       <c r="BB9" s="21"/>
-      <c r="BC9" s="46"/>
+      <c r="BC9" s="44"/>
       <c r="BD9" s="9"/>
       <c r="BE9" s="20"/>
       <c r="BF9" s="9"/>
@@ -7251,7 +7257,7 @@
       <c r="AY10" s="12"/>
       <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
-      <c r="BB10" s="48"/>
+      <c r="BB10" s="46"/>
       <c r="BC10" s="3"/>
       <c r="BD10" s="12"/>
       <c r="BE10" s="12"/>
@@ -7327,7 +7333,7 @@
       <c r="AZ11" s="17"/>
       <c r="BA11" s="8"/>
       <c r="BB11" s="16"/>
-      <c r="BC11" s="45"/>
+      <c r="BC11" s="43"/>
       <c r="BD11" s="8"/>
       <c r="BE11" s="17"/>
       <c r="BF11" s="8"/>
@@ -7404,7 +7410,7 @@
       <c r="AZ12" s="20"/>
       <c r="BA12" s="9"/>
       <c r="BB12" s="21"/>
-      <c r="BC12" s="46"/>
+      <c r="BC12" s="44"/>
       <c r="BD12" s="9"/>
       <c r="BE12" s="20"/>
       <c r="BF12" s="9"/>
@@ -7480,7 +7486,7 @@
       <c r="AY13" s="12"/>
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
-      <c r="BB13" s="49"/>
+      <c r="BB13" s="47"/>
       <c r="BC13" s="3"/>
       <c r="BD13" s="12"/>
       <c r="BE13" s="12"/>
@@ -7558,7 +7564,7 @@
       <c r="AZ14" s="17"/>
       <c r="BA14" s="41"/>
       <c r="BB14" s="16"/>
-      <c r="BC14" s="45"/>
+      <c r="BC14" s="43"/>
       <c r="BD14" s="41"/>
       <c r="BE14" s="17"/>
       <c r="BF14" s="41"/>
@@ -7645,7 +7651,7 @@
       <c r="AZ15" s="27"/>
       <c r="BA15" s="3"/>
       <c r="BB15" s="38"/>
-      <c r="BC15" s="47"/>
+      <c r="BC15" s="45"/>
       <c r="BD15" s="3"/>
       <c r="BE15" s="27"/>
       <c r="BF15" s="3"/>
@@ -7739,7 +7745,7 @@
       <c r="AY16" s="12"/>
       <c r="AZ16" s="12"/>
       <c r="BA16" s="12"/>
-      <c r="BB16" s="48"/>
+      <c r="BB16" s="46"/>
       <c r="BC16" s="3"/>
       <c r="BD16" s="12"/>
       <c r="BE16" s="12"/>
@@ -7833,7 +7839,7 @@
       <c r="AZ17" s="17"/>
       <c r="BA17" s="8"/>
       <c r="BB17" s="16"/>
-      <c r="BC17" s="45"/>
+      <c r="BC17" s="43"/>
       <c r="BD17" s="8"/>
       <c r="BE17" s="17"/>
       <c r="BF17" s="8"/>
@@ -7940,7 +7946,7 @@
       <c r="BB18" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="BC18" s="46"/>
+      <c r="BC18" s="44"/>
       <c r="BD18" s="9"/>
       <c r="BE18" s="20"/>
       <c r="BF18" s="9"/>
@@ -8044,7 +8050,7 @@
       <c r="BA19" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="BB19" s="49" t="s">
+      <c r="BB19" s="47" t="s">
         <v>149</v>
       </c>
       <c r="BC19" s="3" t="s">
@@ -8164,7 +8170,7 @@
       <c r="BB20" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="BC20" s="46" t="s">
+      <c r="BC20" s="44" t="s">
         <v>166</v>
       </c>
       <c r="BD20" s="19" t="s">
@@ -8237,13 +8243,15 @@
       <c r="AJ21" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AK21" s="43" t="s">
+      <c r="AK21" s="213" t="s">
         <v>96</v>
       </c>
       <c r="AL21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AM21" s="21"/>
+      <c r="AM21" s="213" t="s">
+        <v>96</v>
+      </c>
       <c r="AN21" s="19" t="s">
         <v>66</v>
       </c>
@@ -8285,7 +8293,7 @@
       <c r="BB21" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="BC21" s="46" t="s">
+      <c r="BC21" s="44" t="s">
         <v>166</v>
       </c>
       <c r="BD21" s="19" t="s">
@@ -8401,7 +8409,7 @@
       <c r="BA22" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="BB22" s="48" t="s">
+      <c r="BB22" s="46" t="s">
         <v>148</v>
       </c>
       <c r="BC22" s="3" t="s">
@@ -8523,7 +8531,7 @@
       <c r="BB23" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="BC23" s="45" t="s">
+      <c r="BC23" s="43" t="s">
         <v>144</v>
       </c>
       <c r="BD23" s="22" t="s">
@@ -8575,13 +8583,21 @@
       <c r="AA24" s="20"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="21"/>
-      <c r="AD24" s="42" t="s">
+      <c r="AD24" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="21"/>
+      <c r="AE24" s="214" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF24" s="214" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG24" s="214" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH24" s="214" t="s">
+        <v>78</v>
+      </c>
       <c r="AI24" s="19" t="s">
         <v>97</v>
       </c>
@@ -8634,7 +8650,7 @@
         <v>163</v>
       </c>
       <c r="BB24" s="21"/>
-      <c r="BC24" s="46" t="s">
+      <c r="BC24" s="44" t="s">
         <v>139</v>
       </c>
       <c r="BD24" s="9" t="s">
@@ -8752,7 +8768,7 @@
       <c r="BA25" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="BB25" s="49" t="s">
+      <c r="BB25" s="47" t="s">
         <v>163</v>
       </c>
       <c r="BC25" s="3" t="s">
@@ -8892,7 +8908,7 @@
       <c r="BB26" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="BC26" s="45" t="s">
+      <c r="BC26" s="43" t="s">
         <v>162</v>
       </c>
       <c r="BD26" s="41" t="s">
@@ -9027,7 +9043,7 @@
       </c>
       <c r="BA27" s="3"/>
       <c r="BB27" s="38"/>
-      <c r="BC27" s="47" t="s">
+      <c r="BC27" s="45" t="s">
         <v>160</v>
       </c>
       <c r="BD27" s="3" t="s">
@@ -9173,7 +9189,7 @@
       <c r="AY28" s="12"/>
       <c r="AZ28" s="12"/>
       <c r="BA28" s="12"/>
-      <c r="BB28" s="48"/>
+      <c r="BB28" s="46"/>
       <c r="BC28" s="3" t="s">
         <v>161</v>
       </c>
@@ -9315,7 +9331,7 @@
       <c r="AZ29" s="17"/>
       <c r="BA29" s="8"/>
       <c r="BB29" s="16"/>
-      <c r="BC29" s="45" t="s">
+      <c r="BC29" s="43" t="s">
         <v>160</v>
       </c>
       <c r="BD29" s="22" t="s">
@@ -9458,7 +9474,7 @@
         <v>16</v>
       </c>
       <c r="BB30" s="21"/>
-      <c r="BC30" s="46" t="s">
+      <c r="BC30" s="44" t="s">
         <v>160</v>
       </c>
       <c r="BD30" s="9" t="s">
@@ -9594,7 +9610,7 @@
         <v>16</v>
       </c>
       <c r="BA31" s="12"/>
-      <c r="BB31" s="49"/>
+      <c r="BB31" s="47"/>
       <c r="BC31" s="3" t="s">
         <v>159</v>
       </c>
@@ -9608,49 +9624,49 @@
       <c r="BG31" s="7"/>
     </row>
     <row r="32" spans="3:59" ht="35" customHeight="1" thickBot="1">
-      <c r="C32" s="175" t="s">
+      <c r="C32" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="176"/>
-      <c r="E32" s="125" t="s">
+      <c r="D32" s="162"/>
+      <c r="E32" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="126" t="s">
+      <c r="F32" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="96" t="s">
+      <c r="G32" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="126" t="s">
+      <c r="H32" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="98"/>
-      <c r="J32" s="127" t="s">
+      <c r="I32" s="96"/>
+      <c r="J32" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="K32" s="126" t="s">
+      <c r="K32" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="L32" s="96" t="s">
+      <c r="L32" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="M32" s="126" t="s">
+      <c r="M32" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="N32" s="98" t="s">
+      <c r="N32" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="O32" s="127" t="s">
+      <c r="O32" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="P32" s="126" t="s">
+      <c r="P32" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Q32" s="96" t="s">
+      <c r="Q32" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="R32" s="126"/>
-      <c r="S32" s="98"/>
+      <c r="R32" s="124"/>
+      <c r="S32" s="96"/>
       <c r="T32" s="24" t="s">
         <v>74</v>
       </c>
@@ -9733,182 +9749,183 @@
       <c r="AU32" s="25"/>
       <c r="AV32" s="36"/>
       <c r="AW32" s="26"/>
-      <c r="AX32" s="127" t="s">
+      <c r="AX32" s="125" t="s">
         <v>159</v>
       </c>
-      <c r="AY32" s="126" t="s">
+      <c r="AY32" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="AZ32" s="96"/>
-      <c r="BA32" s="126"/>
-      <c r="BB32" s="98"/>
-      <c r="BC32" s="125" t="s">
+      <c r="AZ32" s="94"/>
+      <c r="BA32" s="124"/>
+      <c r="BB32" s="96"/>
+      <c r="BC32" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="BD32" s="126" t="s">
+      <c r="BD32" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="BE32" s="96" t="s">
+      <c r="BE32" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="BF32" s="126"/>
-      <c r="BG32" s="128"/>
+      <c r="BF32" s="124"/>
+      <c r="BG32" s="126"/>
     </row>
     <row r="33" spans="3:59" ht="35" customHeight="1" thickTop="1">
-      <c r="C33" s="177"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="166" t="s">
+      <c r="C33" s="163"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="167"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="169" t="s">
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="167"/>
-      <c r="L33" s="167"/>
-      <c r="M33" s="167"/>
-      <c r="N33" s="168"/>
-      <c r="O33" s="169" t="s">
+      <c r="K33" s="171"/>
+      <c r="L33" s="171"/>
+      <c r="M33" s="171"/>
+      <c r="N33" s="172"/>
+      <c r="O33" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="P33" s="167"/>
-      <c r="Q33" s="167"/>
-      <c r="R33" s="167"/>
-      <c r="S33" s="170"/>
-      <c r="T33" s="174" t="s">
+      <c r="P33" s="171"/>
+      <c r="Q33" s="171"/>
+      <c r="R33" s="171"/>
+      <c r="S33" s="174"/>
+      <c r="T33" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="U33" s="158"/>
-      <c r="V33" s="158"/>
-      <c r="W33" s="158"/>
-      <c r="X33" s="160"/>
-      <c r="Y33" s="161" t="s">
+      <c r="U33" s="152"/>
+      <c r="V33" s="152"/>
+      <c r="W33" s="152"/>
+      <c r="X33" s="153"/>
+      <c r="Y33" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="Z33" s="158"/>
-      <c r="AA33" s="158"/>
-      <c r="AB33" s="158"/>
-      <c r="AC33" s="160"/>
-      <c r="AD33" s="161" t="s">
+      <c r="Z33" s="152"/>
+      <c r="AA33" s="152"/>
+      <c r="AB33" s="152"/>
+      <c r="AC33" s="153"/>
+      <c r="AD33" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="AE33" s="158"/>
-      <c r="AF33" s="158"/>
-      <c r="AG33" s="158"/>
-      <c r="AH33" s="171"/>
-      <c r="AI33" s="174" t="s">
+      <c r="AE33" s="152"/>
+      <c r="AF33" s="152"/>
+      <c r="AG33" s="152"/>
+      <c r="AH33" s="175"/>
+      <c r="AI33" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="AJ33" s="158"/>
-      <c r="AK33" s="158"/>
-      <c r="AL33" s="158"/>
-      <c r="AM33" s="160"/>
-      <c r="AN33" s="161" t="s">
+      <c r="AJ33" s="152"/>
+      <c r="AK33" s="152"/>
+      <c r="AL33" s="152"/>
+      <c r="AM33" s="153"/>
+      <c r="AN33" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="AO33" s="158"/>
-      <c r="AP33" s="158"/>
-      <c r="AQ33" s="158"/>
-      <c r="AR33" s="160"/>
-      <c r="AS33" s="161" t="s">
+      <c r="AO33" s="152"/>
+      <c r="AP33" s="152"/>
+      <c r="AQ33" s="152"/>
+      <c r="AR33" s="153"/>
+      <c r="AS33" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="AT33" s="158"/>
-      <c r="AU33" s="158"/>
-      <c r="AV33" s="158"/>
-      <c r="AW33" s="171"/>
-      <c r="AX33" s="166" t="s">
+      <c r="AT33" s="152"/>
+      <c r="AU33" s="152"/>
+      <c r="AV33" s="152"/>
+      <c r="AW33" s="175"/>
+      <c r="AX33" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="AY33" s="167"/>
-      <c r="AZ33" s="167"/>
-      <c r="BA33" s="167"/>
-      <c r="BB33" s="168"/>
-      <c r="BC33" s="169" t="s">
+      <c r="AY33" s="171"/>
+      <c r="AZ33" s="171"/>
+      <c r="BA33" s="171"/>
+      <c r="BB33" s="172"/>
+      <c r="BC33" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="BD33" s="167"/>
-      <c r="BE33" s="167"/>
-      <c r="BF33" s="167"/>
-      <c r="BG33" s="170"/>
+      <c r="BD33" s="171"/>
+      <c r="BE33" s="171"/>
+      <c r="BF33" s="171"/>
+      <c r="BG33" s="174"/>
     </row>
     <row r="34" spans="3:59" ht="35" customHeight="1" thickBot="1">
-      <c r="C34" s="179"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="163" t="s">
+      <c r="C34" s="165"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="164"/>
-      <c r="K34" s="164"/>
-      <c r="L34" s="164"/>
-      <c r="M34" s="164"/>
-      <c r="N34" s="164"/>
-      <c r="O34" s="164"/>
-      <c r="P34" s="164"/>
-      <c r="Q34" s="164"/>
-      <c r="R34" s="164"/>
-      <c r="S34" s="165"/>
-      <c r="T34" s="163" t="s">
+      <c r="F34" s="168"/>
+      <c r="G34" s="168"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="168"/>
+      <c r="J34" s="168"/>
+      <c r="K34" s="168"/>
+      <c r="L34" s="168"/>
+      <c r="M34" s="168"/>
+      <c r="N34" s="168"/>
+      <c r="O34" s="168"/>
+      <c r="P34" s="168"/>
+      <c r="Q34" s="168"/>
+      <c r="R34" s="168"/>
+      <c r="S34" s="169"/>
+      <c r="T34" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="U34" s="172"/>
-      <c r="V34" s="172"/>
-      <c r="W34" s="172"/>
-      <c r="X34" s="172"/>
-      <c r="Y34" s="172"/>
-      <c r="Z34" s="172"/>
-      <c r="AA34" s="172"/>
-      <c r="AB34" s="172"/>
-      <c r="AC34" s="172"/>
-      <c r="AD34" s="172"/>
-      <c r="AE34" s="172"/>
-      <c r="AF34" s="172"/>
-      <c r="AG34" s="172"/>
-      <c r="AH34" s="173"/>
-      <c r="AI34" s="163" t="s">
+      <c r="U34" s="176"/>
+      <c r="V34" s="176"/>
+      <c r="W34" s="176"/>
+      <c r="X34" s="176"/>
+      <c r="Y34" s="176"/>
+      <c r="Z34" s="176"/>
+      <c r="AA34" s="176"/>
+      <c r="AB34" s="176"/>
+      <c r="AC34" s="176"/>
+      <c r="AD34" s="176"/>
+      <c r="AE34" s="176"/>
+      <c r="AF34" s="176"/>
+      <c r="AG34" s="176"/>
+      <c r="AH34" s="177"/>
+      <c r="AI34" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="AJ34" s="172"/>
-      <c r="AK34" s="172"/>
-      <c r="AL34" s="172"/>
-      <c r="AM34" s="172"/>
-      <c r="AN34" s="172"/>
-      <c r="AO34" s="172"/>
-      <c r="AP34" s="172"/>
-      <c r="AQ34" s="172"/>
-      <c r="AR34" s="172"/>
-      <c r="AS34" s="172"/>
-      <c r="AT34" s="172"/>
-      <c r="AU34" s="172"/>
-      <c r="AV34" s="172"/>
-      <c r="AW34" s="173"/>
-      <c r="AX34" s="163" t="s">
+      <c r="AJ34" s="176"/>
+      <c r="AK34" s="176"/>
+      <c r="AL34" s="176"/>
+      <c r="AM34" s="176"/>
+      <c r="AN34" s="176"/>
+      <c r="AO34" s="176"/>
+      <c r="AP34" s="176"/>
+      <c r="AQ34" s="176"/>
+      <c r="AR34" s="176"/>
+      <c r="AS34" s="176"/>
+      <c r="AT34" s="176"/>
+      <c r="AU34" s="176"/>
+      <c r="AV34" s="176"/>
+      <c r="AW34" s="177"/>
+      <c r="AX34" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="AY34" s="164"/>
-      <c r="AZ34" s="164"/>
-      <c r="BA34" s="164"/>
-      <c r="BB34" s="164"/>
-      <c r="BC34" s="164"/>
-      <c r="BD34" s="164"/>
-      <c r="BE34" s="164"/>
-      <c r="BF34" s="164"/>
-      <c r="BG34" s="165"/>
+      <c r="AY34" s="168"/>
+      <c r="AZ34" s="168"/>
+      <c r="BA34" s="168"/>
+      <c r="BB34" s="168"/>
+      <c r="BC34" s="168"/>
+      <c r="BD34" s="168"/>
+      <c r="BE34" s="168"/>
+      <c r="BF34" s="168"/>
+      <c r="BG34" s="169"/>
+    </row>
+    <row r="37" spans="3:59" ht="35" customHeight="1">
+      <c r="O37">
+        <f>COUNTIF(E3:BG32,"*")</f>
+        <v>678</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C32:D34"/>
-    <mergeCell ref="E34:S34"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:S33"/>
     <mergeCell ref="AX34:BG34"/>
     <mergeCell ref="AX33:BB33"/>
     <mergeCell ref="BC33:BG33"/>
@@ -9921,6 +9938,11 @@
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="AI34:AW34"/>
     <mergeCell ref="T33:X33"/>
+    <mergeCell ref="C32:D34"/>
+    <mergeCell ref="E34:S34"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:S33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -11520,374 +11542,390 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="C1" s="193" t="s">
+    <row r="1" spans="1:13">
+      <c r="C1" s="191" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-    </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1"/>
-    <row r="4" spans="1:11" ht="16" thickTop="1">
-      <c r="C4" s="50" t="s">
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" thickBot="1"/>
+    <row r="4" spans="1:13" ht="16" thickTop="1">
+      <c r="C4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="64"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="184" t="s">
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="181" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="179" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="183"/>
-    </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1">
-      <c r="A6" s="185"/>
-      <c r="C6" s="54" t="s">
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="181"/>
+    </row>
+    <row r="6" spans="1:13" ht="16" thickBot="1">
+      <c r="A6" s="183"/>
+      <c r="C6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="65"/>
-    </row>
-    <row r="7" spans="1:11" ht="16" thickTop="1">
-      <c r="A7" s="185"/>
-    </row>
-    <row r="8" spans="1:11" ht="16" thickBot="1">
-      <c r="A8" s="185"/>
-    </row>
-    <row r="9" spans="1:11" ht="16" thickTop="1">
-      <c r="A9" s="185"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59" t="s">
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="63"/>
+    </row>
+    <row r="7" spans="1:13" ht="16" thickTop="1">
+      <c r="A7" s="183"/>
+    </row>
+    <row r="8" spans="1:13" ht="16" thickBot="1">
+      <c r="A8" s="183"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" thickTop="1">
+      <c r="A9" s="183"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="K9" s="64" t="s">
+      <c r="K9" s="62" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="185"/>
-      <c r="C10" s="63" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="183"/>
+      <c r="C10" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="K10" s="66" t="s">
+      <c r="K10" s="64" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="16" thickBot="1">
-      <c r="A11" s="185"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61" t="s">
+      <c r="M10">
+        <f>COUNTIF(C14:K20,"*")</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16" thickBot="1">
+      <c r="A11" s="183"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="K11" s="65" t="s">
+      <c r="K11" s="63" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="16" thickTop="1">
-      <c r="A12" s="185"/>
-    </row>
-    <row r="13" spans="1:11" ht="16" thickBot="1">
-      <c r="A13" s="185"/>
-    </row>
-    <row r="14" spans="1:11" ht="16" thickTop="1">
-      <c r="A14" s="185"/>
-      <c r="C14" s="56" t="s">
+      <c r="M11">
+        <f>COUNTIF(F9:K11,"*")</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16" thickTop="1">
+      <c r="A12" s="183"/>
+      <c r="M12">
+        <f>COUNTIF(C4:G6,"*")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16" thickBot="1">
+      <c r="A13" s="183"/>
+      <c r="M13">
+        <f>SUM(M10:M12)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16" thickTop="1">
+      <c r="A14" s="183"/>
+      <c r="C14" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="J14" s="59" t="s">
+      <c r="J14" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="K14" s="64" t="s">
+      <c r="K14" s="62" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="185"/>
-      <c r="C15" s="63" t="s">
+    <row r="15" spans="1:13">
+      <c r="A15" s="183"/>
+      <c r="C15" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="J15" s="60" t="s">
+      <c r="J15" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="K15" s="66" t="s">
+      <c r="K15" s="64" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
-      <c r="A16" s="185"/>
-      <c r="C16" s="57" t="s">
+    <row r="16" spans="1:13" ht="16" thickBot="1">
+      <c r="A16" s="183"/>
+      <c r="C16" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61" t="s">
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="J16" s="61" t="s">
+      <c r="J16" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="K16" s="65" t="s">
+      <c r="K16" s="63" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="17" thickTop="1" thickBot="1">
-      <c r="A17" s="185"/>
+      <c r="A17" s="183"/>
     </row>
     <row r="18" spans="1:11" ht="16" thickTop="1">
-      <c r="A18" s="185"/>
-      <c r="C18" s="56" t="s">
+      <c r="A18" s="183"/>
+      <c r="C18" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="67"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="186"/>
-      <c r="C19" s="63" t="s">
+      <c r="A19" s="184"/>
+      <c r="C19" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="68"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="66"/>
     </row>
     <row r="20" spans="1:11" ht="16" thickBot="1">
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="69"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="1:11" ht="16" thickTop="1"/>
     <row r="24" spans="1:11">
-      <c r="C24" s="187" t="s">
+      <c r="C24" s="185" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="188"/>
-      <c r="K24" s="189"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="187"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="C25" s="190"/>
-      <c r="D25" s="191"/>
-      <c r="E25" s="191"/>
-      <c r="F25" s="191"/>
-      <c r="G25" s="191"/>
-      <c r="H25" s="191"/>
-      <c r="I25" s="191"/>
-      <c r="J25" s="191"/>
-      <c r="K25" s="192"/>
+      <c r="C25" s="188"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="190"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="C27" s="187" t="s">
+      <c r="C27" s="185" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="188"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="188"/>
-      <c r="J27" s="188"/>
-      <c r="K27" s="189"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="187"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="C28" s="190"/>
-      <c r="D28" s="191"/>
-      <c r="E28" s="191"/>
-      <c r="F28" s="191"/>
-      <c r="G28" s="191"/>
-      <c r="H28" s="191"/>
-      <c r="I28" s="191"/>
-      <c r="J28" s="191"/>
-      <c r="K28" s="192"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="189"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="189"/>
+      <c r="K28" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11909,488 +11947,492 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="C1" s="200" t="s">
+    <row r="1" spans="1:14">
+      <c r="C1" s="198" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="202"/>
-    </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="C2" s="203"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="205"/>
-    </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1"/>
-    <row r="4" spans="1:11">
-      <c r="C4" s="194" t="s">
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="200"/>
+    </row>
+    <row r="2" spans="1:14" ht="16" thickBot="1">
+      <c r="C2" s="201"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="203"/>
+    </row>
+    <row r="3" spans="1:14" ht="16" thickBot="1"/>
+    <row r="4" spans="1:14">
+      <c r="C4" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="196"/>
-    </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="C5" s="197"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="199"/>
-    </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1"/>
-    <row r="8" spans="1:11" ht="16" thickTop="1">
-      <c r="A8" s="184" t="s">
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+      <c r="K4" s="194"/>
+    </row>
+    <row r="5" spans="1:14" ht="16" thickBot="1">
+      <c r="C5" s="195"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="196"/>
+      <c r="K5" s="197"/>
+    </row>
+    <row r="7" spans="1:14" ht="16" thickBot="1"/>
+    <row r="8" spans="1:14" ht="16" thickTop="1">
+      <c r="A8" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59" t="s">
+      <c r="G8" s="57"/>
+      <c r="H8" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="50" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="185"/>
-      <c r="C9" s="62" t="s">
+    <row r="9" spans="1:14">
+      <c r="A9" s="183"/>
+      <c r="C9" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60" t="s">
+      <c r="F9" s="58"/>
+      <c r="G9" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="K9" s="66" t="s">
+      <c r="K9" s="64" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" thickBot="1">
-      <c r="A10" s="185"/>
-      <c r="C10" s="54" t="s">
+    <row r="10" spans="1:14" ht="16" thickBot="1">
+      <c r="A10" s="183"/>
+      <c r="C10" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61" t="s">
+      <c r="F10" s="59"/>
+      <c r="G10" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="H10" s="61" t="s">
+      <c r="H10" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="J10" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="K10" s="55" t="s">
+      <c r="K10" s="53" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16" thickTop="1">
-      <c r="A11" s="185"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-    </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1">
-      <c r="A12" s="185"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-    </row>
-    <row r="13" spans="1:11" ht="16" thickTop="1">
-      <c r="A13" s="185"/>
-      <c r="C13" s="56" t="s">
+    <row r="11" spans="1:14" ht="16" thickTop="1">
+      <c r="A11" s="183"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="N11">
+        <f>COUNTIF(C8:K24,"*")</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16" thickBot="1">
+      <c r="A12" s="183"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+    </row>
+    <row r="13" spans="1:14" ht="16" thickTop="1">
+      <c r="A13" s="183"/>
+      <c r="C13" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="K13" s="52" t="s">
+      <c r="K13" s="50" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="185"/>
-      <c r="C14" s="63" t="s">
+    <row r="14" spans="1:14">
+      <c r="A14" s="183"/>
+      <c r="C14" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="60" t="s">
+      <c r="H14" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="J14" s="60" t="s">
+      <c r="J14" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="64" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
-      <c r="A15" s="185"/>
-      <c r="C15" s="57" t="s">
+    <row r="15" spans="1:14" ht="16" thickBot="1">
+      <c r="A15" s="183"/>
+      <c r="C15" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61" t="s">
+      <c r="H15" s="59"/>
+      <c r="I15" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="K15" s="55" t="s">
+      <c r="K15" s="53" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickTop="1">
-      <c r="A16" s="185"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
+    <row r="16" spans="1:14" ht="16" thickTop="1">
+      <c r="A16" s="183"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
     </row>
     <row r="17" spans="1:11" ht="16" thickBot="1">
-      <c r="A17" s="185"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
+      <c r="A17" s="183"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
     </row>
     <row r="18" spans="1:11" ht="16" thickTop="1">
-      <c r="A18" s="185"/>
-      <c r="C18" s="56" t="s">
+      <c r="A18" s="183"/>
+      <c r="C18" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G18" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="52" t="s">
+      <c r="J18" s="57"/>
+      <c r="K18" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="185"/>
-      <c r="C19" s="63" t="s">
+      <c r="A19" s="183"/>
+      <c r="C19" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="G19" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="H19" s="60" t="s">
+      <c r="H19" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="I19" s="60" t="s">
+      <c r="I19" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="J19" s="60" t="s">
+      <c r="J19" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="K19" s="66" t="s">
+      <c r="K19" s="64" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16" thickBot="1">
-      <c r="A20" s="185"/>
-      <c r="C20" s="57" t="s">
+      <c r="A20" s="183"/>
+      <c r="C20" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="I20" s="61" t="s">
+      <c r="I20" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="J20" s="61"/>
-      <c r="K20" s="55"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="53"/>
     </row>
     <row r="21" spans="1:11" ht="17" thickTop="1" thickBot="1">
-      <c r="A21" s="185"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
+      <c r="A21" s="183"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
     </row>
     <row r="22" spans="1:11" ht="16" thickTop="1">
-      <c r="A22" s="185"/>
-      <c r="C22" s="56" t="s">
+      <c r="A22" s="183"/>
+      <c r="C22" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59" t="s">
+      <c r="E22" s="57"/>
+      <c r="F22" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="81"/>
+      <c r="K22" s="79"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="185"/>
-      <c r="C23" s="63" t="s">
+      <c r="A23" s="183"/>
+      <c r="C23" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="60" t="s">
+      <c r="H23" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="I23" s="60" t="s">
+      <c r="I23" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="J23" s="60" t="s">
+      <c r="J23" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="68" t="s">
+      <c r="K23" s="66" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1">
-      <c r="A24" s="186"/>
-      <c r="C24" s="57" t="s">
+      <c r="A24" s="184"/>
+      <c r="C24" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61" t="s">
+      <c r="E24" s="59"/>
+      <c r="F24" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="G24" s="61" t="s">
+      <c r="G24" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="61" t="s">
+      <c r="I24" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="K24" s="82"/>
+      <c r="K24" s="80"/>
     </row>
     <row r="25" spans="1:11" ht="16" thickTop="1"/>
     <row r="27" spans="1:11">
-      <c r="C27" s="187" t="s">
+      <c r="C27" s="185" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="188"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="188"/>
-      <c r="J27" s="188"/>
-      <c r="K27" s="189"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="187"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="C28" s="190"/>
-      <c r="D28" s="191"/>
-      <c r="E28" s="191"/>
-      <c r="F28" s="191"/>
-      <c r="G28" s="191"/>
-      <c r="H28" s="191"/>
-      <c r="I28" s="191"/>
-      <c r="J28" s="191"/>
-      <c r="K28" s="192"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="189"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="189"/>
+      <c r="K28" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12421,211 +12463,211 @@
   <sheetData>
     <row r="2" spans="2:10" ht="16" thickBot="1"/>
     <row r="3" spans="2:10" ht="16" thickTop="1">
-      <c r="B3" s="50"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="52"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="62"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="66"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="2:10" ht="16" thickBot="1">
-      <c r="B5" s="54"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="55"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="2:10" ht="16" thickTop="1">
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
     </row>
     <row r="7" spans="2:10" ht="16" thickBot="1">
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
     </row>
     <row r="8" spans="2:10" ht="16" thickTop="1">
-      <c r="B8" s="56"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="52"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="63"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="66"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="64"/>
     </row>
     <row r="10" spans="2:10" ht="16" thickBot="1">
-      <c r="B10" s="57"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="2:10" ht="16" thickTop="1">
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
     </row>
     <row r="12" spans="2:10" ht="16" thickBot="1">
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" spans="2:10" ht="16" thickTop="1">
-      <c r="B13" s="56"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="52"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="63"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="66"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="64"/>
     </row>
     <row r="15" spans="2:10" ht="16" thickBot="1">
-      <c r="B15" s="57"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="53"/>
     </row>
     <row r="16" spans="2:10" ht="17" thickTop="1" thickBot="1">
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
     </row>
     <row r="17" spans="2:10" ht="16" thickTop="1">
-      <c r="B17" s="56"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="81"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="79"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="63"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="68"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="2:10" ht="16" thickBot="1">
-      <c r="B19" s="57"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="82"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="2:10" ht="16" thickTop="1">
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12639,52 +12681,52 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N15"/>
+  <dimension ref="B1:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="2:14" ht="35" customHeight="1">
-      <c r="D1" s="212" t="s">
+    <row r="1" spans="2:19" ht="35" customHeight="1">
+      <c r="D1" s="210" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="214"/>
-    </row>
-    <row r="2" spans="2:14" ht="35" customHeight="1" thickBot="1"/>
-    <row r="3" spans="2:14" ht="35" customHeight="1">
-      <c r="B3" s="206" t="s">
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="212"/>
+    </row>
+    <row r="2" spans="2:19" ht="35" customHeight="1" thickBot="1"/>
+    <row r="3" spans="2:19" ht="35" customHeight="1">
+      <c r="B3" s="204" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="E3" s="70" t="s">
+      <c r="C3" s="205"/>
+      <c r="E3" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="I3" s="73"/>
-    </row>
-    <row r="4" spans="2:14" ht="35" customHeight="1">
-      <c r="B4" s="208"/>
-      <c r="C4" s="209"/>
-      <c r="E4" s="74" t="s">
+      <c r="I3" s="71"/>
+    </row>
+    <row r="4" spans="2:19" ht="35" customHeight="1">
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="E4" s="72" t="s">
         <v>198</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -12696,115 +12738,119 @@
       <c r="H4" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="84" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="35" customHeight="1" thickBot="1">
-      <c r="B5" s="208"/>
-      <c r="C5" s="209"/>
-      <c r="E5" s="95"/>
+    <row r="5" spans="2:19" ht="35" customHeight="1" thickBot="1">
+      <c r="B5" s="206"/>
+      <c r="C5" s="207"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="H5" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="97" t="s">
+      <c r="I5" s="95" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" ht="35" customHeight="1">
-      <c r="B6" s="208"/>
-      <c r="C6" s="209"/>
-      <c r="E6" s="118" t="s">
+      <c r="S5">
+        <f>COUNTIF(E3:N15,"*")</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="35" customHeight="1">
+      <c r="B6" s="206"/>
+      <c r="C6" s="207"/>
+      <c r="E6" s="116" t="s">
         <v>208</v>
       </c>
-      <c r="F6" s="119" t="s">
+      <c r="F6" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="G6" s="120" t="s">
+      <c r="G6" s="118" t="s">
         <v>193</v>
       </c>
-      <c r="H6" s="119" t="s">
+      <c r="H6" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="I6" s="121" t="s">
+      <c r="I6" s="119" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="35" customHeight="1">
-      <c r="B7" s="208"/>
-      <c r="C7" s="209"/>
-      <c r="E7" s="122" t="s">
+    <row r="7" spans="2:19" ht="35" customHeight="1">
+      <c r="B7" s="206"/>
+      <c r="C7" s="207"/>
+      <c r="E7" s="120" t="s">
         <v>200</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="G7" s="123" t="s">
+      <c r="G7" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="H7" s="124" t="s">
+      <c r="H7" s="122" t="s">
         <v>202</v>
       </c>
-      <c r="I7" s="86" t="s">
+      <c r="I7" s="84" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="35" customHeight="1" thickBot="1">
-      <c r="B8" s="210"/>
-      <c r="C8" s="211"/>
-      <c r="E8" s="76" t="s">
+    <row r="8" spans="2:19" ht="35" customHeight="1" thickBot="1">
+      <c r="B8" s="208"/>
+      <c r="C8" s="209"/>
+      <c r="E8" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="I8" s="79"/>
-    </row>
-    <row r="9" spans="2:14" ht="35" customHeight="1" thickBot="1"/>
-    <row r="10" spans="2:14" ht="35" customHeight="1">
-      <c r="B10" s="206" t="s">
+      <c r="I8" s="77"/>
+    </row>
+    <row r="9" spans="2:19" ht="35" customHeight="1" thickBot="1"/>
+    <row r="10" spans="2:19" ht="35" customHeight="1">
+      <c r="B10" s="204" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="207"/>
-      <c r="E10" s="70" t="s">
+      <c r="C10" s="205"/>
+      <c r="E10" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="109" t="s">
+      <c r="G10" s="70"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="L10" s="110" t="s">
+      <c r="L10" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="M10" s="71" t="s">
+      <c r="M10" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="N10" s="111" t="s">
+      <c r="N10" s="109" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="35" customHeight="1">
-      <c r="B11" s="208"/>
-      <c r="C11" s="209"/>
-      <c r="E11" s="74" t="s">
+    <row r="11" spans="2:19" ht="35" customHeight="1">
+      <c r="B11" s="206"/>
+      <c r="C11" s="207"/>
+      <c r="E11" s="72" t="s">
         <v>178</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -12817,121 +12863,121 @@
       <c r="I11" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="J11" s="112"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="75"/>
-    </row>
-    <row r="12" spans="2:14" ht="35" customHeight="1" thickBot="1">
-      <c r="B12" s="208"/>
-      <c r="C12" s="209"/>
-      <c r="E12" s="95" t="s">
+      <c r="J11" s="110"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="73"/>
+    </row>
+    <row r="12" spans="2:19" ht="35" customHeight="1" thickBot="1">
+      <c r="B12" s="206"/>
+      <c r="C12" s="207"/>
+      <c r="E12" s="93" t="s">
         <v>178</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G12" s="96" t="s">
+      <c r="G12" s="94" t="s">
         <v>209</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="114" t="s">
+      <c r="I12" s="104"/>
+      <c r="J12" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="K12" s="115" t="s">
+      <c r="K12" s="113" t="s">
         <v>174</v>
       </c>
-      <c r="L12" s="116" t="s">
+      <c r="L12" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="M12" s="115"/>
-      <c r="N12" s="117" t="s">
+      <c r="M12" s="113"/>
+      <c r="N12" s="115" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="35" customHeight="1">
-      <c r="B13" s="208"/>
-      <c r="C13" s="209"/>
-      <c r="E13" s="99" t="s">
+    <row r="13" spans="2:19" ht="35" customHeight="1">
+      <c r="B13" s="206"/>
+      <c r="C13" s="207"/>
+      <c r="E13" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101" t="s">
+      <c r="F13" s="98"/>
+      <c r="G13" s="99" t="s">
         <v>210</v>
       </c>
-      <c r="H13" s="100" t="s">
+      <c r="H13" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="I13" s="102" t="s">
+      <c r="I13" s="100" t="s">
         <v>180</v>
       </c>
-      <c r="J13" s="84" t="s">
+      <c r="J13" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="K13" s="88"/>
-      <c r="L13" s="107" t="s">
+      <c r="K13" s="86"/>
+      <c r="L13" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="M13" s="88"/>
-      <c r="N13" s="108" t="s">
+      <c r="M13" s="86"/>
+      <c r="N13" s="106" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="35" customHeight="1">
-      <c r="B14" s="208"/>
-      <c r="C14" s="209"/>
-      <c r="E14" s="87" t="s">
+    <row r="14" spans="2:19" ht="35" customHeight="1">
+      <c r="B14" s="206"/>
+      <c r="C14" s="207"/>
+      <c r="E14" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="F14" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85" t="s">
+      <c r="G14" s="82"/>
+      <c r="H14" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="101" t="s">
         <v>210</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="83"/>
-      <c r="L14" s="84" t="s">
+      <c r="K14" s="81"/>
+      <c r="L14" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="M14" s="85"/>
-      <c r="N14" s="89" t="s">
+      <c r="M14" s="83"/>
+      <c r="N14" s="87" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="35" customHeight="1" thickBot="1">
-      <c r="B15" s="210"/>
-      <c r="C15" s="211"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91" t="s">
+    <row r="15" spans="2:19" ht="35" customHeight="1" thickBot="1">
+      <c r="B15" s="208"/>
+      <c r="C15" s="209"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="G15" s="92" t="s">
+      <c r="G15" s="90" t="s">
         <v>182</v>
       </c>
-      <c r="H15" s="91" t="s">
+      <c r="H15" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="I15" s="104" t="s">
+      <c r="I15" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="J15" s="93" t="s">
+      <c r="J15" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="K15" s="91"/>
-      <c r="L15" s="92" t="s">
+      <c r="K15" s="89"/>
+      <c r="L15" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="M15" s="91"/>
-      <c r="N15" s="94" t="s">
+      <c r="M15" s="89"/>
+      <c r="N15" s="92" t="s">
         <v>172</v>
       </c>
     </row>

--- a/Planning/Greenhouse and Raised Beds Map.xlsx
+++ b/Planning/Greenhouse and Raised Beds Map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="0" windowWidth="18780" windowHeight="14380" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="6180" yWindow="0" windowWidth="18780" windowHeight="14300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GH09" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="215">
   <si>
     <t>SAMRAC08_GR</t>
   </si>
@@ -662,6 +662,15 @@
   </si>
   <si>
     <t>AMECAN_01_WM</t>
+  </si>
+  <si>
+    <t>To CG</t>
+  </si>
+  <si>
+    <t>To RB</t>
+  </si>
+  <si>
+    <t>Unk</t>
   </si>
 </sst>
 </file>
@@ -2610,7 +2619,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="587">
+  <cellStyleXfs count="589">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3198,8 +3207,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4094,8 +4105,11 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="587">
+  <cellStyles count="589">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4389,6 +4403,7 @@
     <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4682,6 +4697,7 @@
     <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5016,8 +5032,8 @@
   </sheetPr>
   <dimension ref="C1:BC21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0"/>
@@ -6129,33 +6145,38 @@
       <c r="BB16" s="145"/>
       <c r="BC16" s="146"/>
     </row>
-    <row r="17" spans="3:11" ht="35" customHeight="1" thickTop="1"/>
-    <row r="18" spans="3:11" ht="35" customHeight="1">
+    <row r="17" spans="3:8" ht="35" customHeight="1" thickTop="1"/>
+    <row r="18" spans="3:8" ht="35" customHeight="1">
       <c r="C18" s="129"/>
       <c r="D18" s="129"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="3:11" ht="35" customHeight="1">
+      <c r="G18" s="300"/>
+      <c r="H18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="35" customHeight="1">
       <c r="C19" s="10"/>
       <c r="D19" s="128"/>
       <c r="E19" s="128"/>
       <c r="F19" s="128"/>
-      <c r="G19" s="10"/>
-      <c r="K19">
-        <f>COUNTIF(C3:AZ14,"*")</f>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" ht="35" customHeight="1">
+      <c r="G19" s="301"/>
+      <c r="H19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="35" customHeight="1">
       <c r="C20" s="10"/>
       <c r="D20" s="128"/>
       <c r="E20" s="128"/>
       <c r="F20" s="128"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="3:11" ht="35" customHeight="1">
+      <c r="G20" s="302"/>
+      <c r="H20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="35" customHeight="1">
       <c r="C21" s="10"/>
       <c r="D21" s="128"/>
       <c r="E21" s="128"/>
@@ -6852,10 +6873,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:BG37"/>
+  <dimension ref="C1:BG39"/>
   <sheetViews>
-    <sheetView topLeftCell="V15" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AI27" sqref="AI27"/>
+    <sheetView topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0"/>
@@ -10293,9 +10314,21 @@
       <c r="BG34" s="164"/>
     </row>
     <row r="37" spans="3:59" ht="35" customHeight="1">
-      <c r="O37">
-        <f>COUNTIF(E3:BG32,"*")</f>
-        <v>755</v>
+      <c r="E37" s="300"/>
+      <c r="F37" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="3:59" ht="35" customHeight="1">
+      <c r="E38" s="301"/>
+      <c r="F38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="3:59" ht="35" customHeight="1">
+      <c r="E39" s="302"/>
+      <c r="F39" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -12328,7 +12361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>

--- a/Planning/Greenhouse and Raised Beds Map.xlsx
+++ b/Planning/Greenhouse and Raised Beds Map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="0" windowWidth="18780" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="9680" yWindow="180" windowWidth="18780" windowHeight="14300" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GH09" sheetId="1" r:id="rId1"/>
@@ -3916,9 +3916,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3937,9 +3934,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3959,6 +3953,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5032,7 +5032,7 @@
   </sheetPr>
   <dimension ref="C1:BC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
@@ -6875,8 +6875,8 @@
   </sheetPr>
   <dimension ref="C1:BG39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:F39"/>
+    <sheetView tabSelected="1" topLeftCell="AG19" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="AI30" sqref="AI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0"/>
@@ -7258,10 +7258,10 @@
       <c r="AP7" s="11"/>
       <c r="AQ7" s="11"/>
       <c r="AR7" s="4"/>
-      <c r="AS7" s="235" t="s">
+      <c r="AS7" s="255" t="s">
         <v>129</v>
       </c>
-      <c r="AT7" s="256" t="s">
+      <c r="AT7" s="251" t="s">
         <v>119</v>
       </c>
       <c r="AU7" s="256" t="s">
@@ -7329,7 +7329,7 @@
       <c r="AP8" s="16"/>
       <c r="AQ8" s="8"/>
       <c r="AR8" s="15"/>
-      <c r="AS8" s="244" t="s">
+      <c r="AS8" s="258" t="s">
         <v>152</v>
       </c>
       <c r="AT8" s="259" t="s">
@@ -7810,7 +7810,7 @@
       <c r="AI14" s="225" t="s">
         <v>104</v>
       </c>
-      <c r="AJ14" s="240" t="s">
+      <c r="AJ14" s="239" t="s">
         <v>104</v>
       </c>
       <c r="AK14" s="16" t="s">
@@ -7919,19 +7919,19 @@
       <c r="AM15" s="217" t="s">
         <v>90</v>
       </c>
-      <c r="AN15" s="241" t="s">
+      <c r="AN15" s="240" t="s">
         <v>129</v>
       </c>
-      <c r="AO15" s="241" t="s">
+      <c r="AO15" s="240" t="s">
         <v>129</v>
       </c>
-      <c r="AP15" s="242" t="s">
+      <c r="AP15" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="AQ15" s="242" t="s">
+      <c r="AQ15" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="AR15" s="242" t="s">
+      <c r="AR15" s="241" t="s">
         <v>130</v>
       </c>
       <c r="AS15" s="214" t="s">
@@ -7940,7 +7940,7 @@
       <c r="AT15" s="215" t="s">
         <v>129</v>
       </c>
-      <c r="AU15" s="243" t="s">
+      <c r="AU15" s="242" t="s">
         <v>129</v>
       </c>
       <c r="AV15" s="282" t="s">
@@ -8026,19 +8026,19 @@
       <c r="AM16" s="220" t="s">
         <v>90</v>
       </c>
-      <c r="AN16" s="241" t="s">
+      <c r="AN16" s="240" t="s">
         <v>129</v>
       </c>
-      <c r="AO16" s="241" t="s">
+      <c r="AO16" s="240" t="s">
         <v>129</v>
       </c>
-      <c r="AP16" s="242" t="s">
+      <c r="AP16" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="AQ16" s="242" t="s">
+      <c r="AQ16" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="AR16" s="242" t="s">
+      <c r="AR16" s="241" t="s">
         <v>130</v>
       </c>
       <c r="AS16" s="6" t="s">
@@ -8127,19 +8127,19 @@
       </c>
       <c r="AL17" s="8"/>
       <c r="AM17" s="15"/>
-      <c r="AN17" s="242" t="s">
+      <c r="AN17" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="AO17" s="242" t="s">
+      <c r="AO17" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="AP17" s="241" t="s">
+      <c r="AP17" s="240" t="s">
         <v>129</v>
       </c>
-      <c r="AQ17" s="242" t="s">
+      <c r="AQ17" s="241" t="s">
         <v>141</v>
       </c>
-      <c r="AR17" s="241" t="s">
+      <c r="AR17" s="240" t="s">
         <v>129</v>
       </c>
       <c r="AS17" s="258" t="s">
@@ -8531,7 +8531,7 @@
       <c r="BF20" s="222" t="s">
         <v>118</v>
       </c>
-      <c r="BG20" s="245" t="s">
+      <c r="BG20" s="243" t="s">
         <v>118</v>
       </c>
     </row>
@@ -8674,7 +8674,7 @@
       <c r="BF21" s="222" t="s">
         <v>118</v>
       </c>
-      <c r="BG21" s="245" t="s">
+      <c r="BG21" s="243" t="s">
         <v>118</v>
       </c>
     </row>
@@ -8807,7 +8807,7 @@
       <c r="BF22" s="219" t="s">
         <v>149</v>
       </c>
-      <c r="BG22" s="249"/>
+      <c r="BG22" s="247"/>
     </row>
     <row r="23" spans="3:59" ht="35" customHeight="1">
       <c r="E23" s="270" t="s">
@@ -8924,7 +8924,7 @@
       <c r="BB23" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="BC23" s="246" t="s">
+      <c r="BC23" s="244" t="s">
         <v>143</v>
       </c>
       <c r="BD23" s="225" t="s">
@@ -8936,7 +8936,7 @@
       <c r="BF23" s="227" t="s">
         <v>149</v>
       </c>
-      <c r="BG23" s="247" t="s">
+      <c r="BG23" s="245" t="s">
         <v>149</v>
       </c>
     </row>
@@ -9019,7 +9019,7 @@
       <c r="AR24" s="224" t="s">
         <v>121</v>
       </c>
-      <c r="AS24" s="239" t="s">
+      <c r="AS24" s="238" t="s">
         <v>135</v>
       </c>
       <c r="AT24" s="9" t="s">
@@ -9055,7 +9055,7 @@
       <c r="BF24" s="223" t="s">
         <v>164</v>
       </c>
-      <c r="BG24" s="248" t="s">
+      <c r="BG24" s="246" t="s">
         <v>164</v>
       </c>
     </row>
@@ -9261,19 +9261,19 @@
       <c r="AN26" s="225" t="s">
         <v>120</v>
       </c>
-      <c r="AO26" s="240" t="s">
+      <c r="AO26" s="239" t="s">
         <v>120</v>
       </c>
       <c r="AP26" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="AQ26" s="240" t="s">
+      <c r="AQ26" s="239" t="s">
         <v>121</v>
       </c>
       <c r="AR26" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="AS26" s="238" t="s">
+      <c r="AS26" s="237" t="s">
         <v>135</v>
       </c>
       <c r="AT26" s="40" t="s">
@@ -9306,7 +9306,7 @@
       <c r="BC26" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="BD26" s="240" t="s">
+      <c r="BD26" s="239" t="s">
         <v>164</v>
       </c>
       <c r="BE26" s="227" t="s">
@@ -9315,7 +9315,7 @@
       <c r="BF26" s="227" t="s">
         <v>163</v>
       </c>
-      <c r="BG26" s="247" t="s">
+      <c r="BG26" s="245" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9438,7 +9438,7 @@
       </c>
       <c r="BA27" s="3"/>
       <c r="BB27" s="37"/>
-      <c r="BC27" s="251" t="s">
+      <c r="BC27" s="249" t="s">
         <v>159</v>
       </c>
       <c r="BD27" s="215" t="s">
@@ -9726,7 +9726,7 @@
       <c r="AZ29" s="16"/>
       <c r="BA29" s="8"/>
       <c r="BB29" s="15"/>
-      <c r="BC29" s="246" t="s">
+      <c r="BC29" s="244" t="s">
         <v>159</v>
       </c>
       <c r="BD29" s="225" t="s">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="AG30" s="266"/>
       <c r="AH30" s="262"/>
-      <c r="AI30" s="18" t="s">
+      <c r="AI30" s="250" t="s">
         <v>86</v>
       </c>
       <c r="AJ30" s="9" t="s">
@@ -9891,7 +9891,7 @@
       <c r="G31" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="216" t="s">
+      <c r="H31" s="273" t="s">
         <v>46</v>
       </c>
       <c r="I31" s="4"/>
@@ -10029,10 +10029,10 @@
       <c r="F32" s="279" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="250" t="s">
+      <c r="G32" s="248" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="279" t="s">
+      <c r="H32" s="280" t="s">
         <v>46</v>
       </c>
       <c r="I32" s="95"/>
@@ -10135,7 +10135,7 @@
       <c r="AR32" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="AS32" s="237" t="s">
+      <c r="AS32" s="263" t="s">
         <v>129</v>
       </c>
       <c r="AT32" s="35" t="s">
@@ -10159,7 +10159,7 @@
       <c r="BD32" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="BE32" s="250" t="s">
+      <c r="BE32" s="248" t="s">
         <v>158</v>
       </c>
       <c r="BF32" s="123"/>

--- a/Planning/Greenhouse and Raised Beds Map.xlsx
+++ b/Planning/Greenhouse and Raised Beds Map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="180" windowWidth="18780" windowHeight="14300" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="9700" yWindow="0" windowWidth="23680" windowHeight="13680" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GH09" sheetId="1" r:id="rId1"/>
@@ -677,7 +677,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -755,6 +755,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3210,7 +3215,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4108,6 +4113,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="589">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5033,7 +5041,7 @@
   <dimension ref="C1:BC21"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0"/>
@@ -6875,8 +6883,8 @@
   </sheetPr>
   <dimension ref="C1:BG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG19" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AI30" sqref="AI30"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="65" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0"/>
@@ -11955,7 +11963,7 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -13095,8 +13103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0"/>
@@ -13179,7 +13187,7 @@
       <c r="E6" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="116" t="s">
+      <c r="F6" s="303" t="s">
         <v>199</v>
       </c>
       <c r="G6" s="117" t="s">

--- a/Planning/Greenhouse and Raised Beds Map.xlsx
+++ b/Planning/Greenhouse and Raised Beds Map.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/wildhellgarden/Planning/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="460" windowWidth="18780" windowHeight="14300" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="9700" yWindow="0" windowWidth="23680" windowHeight="13680" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GH09" sheetId="1" r:id="rId1"/>
@@ -21,11 +16,8 @@
     <sheet name="RB TEMPLATE" sheetId="6" r:id="rId7"/>
     <sheet name="EXTRA" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -685,7 +677,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -763,6 +755,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3218,7 +3215,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3597,6 +3594,264 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="143" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="138" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3858,263 +4113,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="143" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="138" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="589">
@@ -4710,11 +4710,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -5046,27 +5041,27 @@
   <dimension ref="C1:BC21"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="3:55" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="W1" s="248" t="s">
+    <row r="1" spans="3:55" ht="35" customHeight="1">
+      <c r="W1" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="249"/>
-      <c r="Y1" s="249"/>
-      <c r="Z1" s="249"/>
-      <c r="AA1" s="249"/>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="249"/>
-      <c r="AD1" s="249"/>
-      <c r="AE1" s="249"/>
-      <c r="AF1" s="249"/>
-    </row>
-    <row r="2" spans="3:55" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:55" ht="35" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+    </row>
+    <row r="2" spans="3:55" ht="35" customHeight="1" thickBot="1"/>
+    <row r="3" spans="3:55" ht="35" customHeight="1" thickTop="1">
       <c r="C3" s="12"/>
       <c r="D3" s="5"/>
       <c r="E3" s="13"/>
@@ -5118,7 +5113,7 @@
       <c r="AY3" s="5"/>
       <c r="AZ3" s="31"/>
     </row>
-    <row r="4" spans="3:55" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:55" ht="35" customHeight="1">
       <c r="C4" s="2"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -5180,7 +5175,7 @@
       <c r="AY4" s="11"/>
       <c r="AZ4" s="30"/>
     </row>
-    <row r="5" spans="3:55" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:55" ht="35" customHeight="1">
       <c r="C5" s="17"/>
       <c r="D5" s="8"/>
       <c r="E5" s="16"/>
@@ -5242,7 +5237,7 @@
       <c r="AY5" s="8"/>
       <c r="AZ5" s="32"/>
     </row>
-    <row r="6" spans="3:55" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:55" ht="35" customHeight="1">
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
       <c r="E6" s="19"/>
@@ -5304,7 +5299,7 @@
       <c r="AY6" s="9"/>
       <c r="AZ6" s="33"/>
     </row>
-    <row r="7" spans="3:55" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:55" ht="35" customHeight="1">
       <c r="C7" s="2"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -5366,7 +5361,7 @@
       <c r="AY7" s="11"/>
       <c r="AZ7" s="7"/>
     </row>
-    <row r="8" spans="3:55" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:55" ht="35" customHeight="1">
       <c r="C8" s="17"/>
       <c r="D8" s="8"/>
       <c r="E8" s="16"/>
@@ -5428,7 +5423,7 @@
       <c r="AY8" s="8"/>
       <c r="AZ8" s="32"/>
     </row>
-    <row r="9" spans="3:55" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:55" ht="35" customHeight="1">
       <c r="C9" s="27" t="s">
         <v>2</v>
       </c>
@@ -5464,16 +5459,16 @@
       <c r="V9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="W9" s="135" t="s">
+      <c r="W9" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="136" t="s">
+      <c r="X9" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="Y9" s="137" t="s">
+      <c r="Y9" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="Z9" s="136" t="s">
+      <c r="Z9" s="222" t="s">
         <v>19</v>
       </c>
       <c r="AA9" s="20"/>
@@ -5486,7 +5481,7 @@
       <c r="AD9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AE9" s="180" t="s">
+      <c r="AE9" s="266" t="s">
         <v>25</v>
       </c>
       <c r="AF9" s="20"/>
@@ -5521,7 +5516,7 @@
       <c r="AY9" s="9"/>
       <c r="AZ9" s="33"/>
     </row>
-    <row r="10" spans="3:55" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:55" ht="35" customHeight="1">
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
@@ -5542,19 +5537,19 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="169" t="s">
+      <c r="R10" s="255" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="170" t="s">
+      <c r="S10" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="T10" s="170" t="s">
+      <c r="T10" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="U10" s="170" t="s">
+      <c r="U10" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="V10" s="171" t="s">
+      <c r="V10" s="257" t="s">
         <v>14</v>
       </c>
       <c r="W10" s="6" t="s">
@@ -5563,13 +5558,13 @@
       <c r="X10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Y10" s="133" t="s">
+      <c r="Y10" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="Z10" s="133" t="s">
+      <c r="Z10" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="AA10" s="134" t="s">
+      <c r="AA10" s="220" t="s">
         <v>19</v>
       </c>
       <c r="AB10" s="6" t="s">
@@ -5581,10 +5576,10 @@
       <c r="AD10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AE10" s="170" t="s">
+      <c r="AE10" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AF10" s="171" t="s">
+      <c r="AF10" s="257" t="s">
         <v>25</v>
       </c>
       <c r="AG10" s="6"/>
@@ -5592,7 +5587,7 @@
       <c r="AI10" s="11"/>
       <c r="AJ10" s="11"/>
       <c r="AK10" s="4"/>
-      <c r="AL10" s="169" t="s">
+      <c r="AL10" s="255" t="s">
         <v>22</v>
       </c>
       <c r="AM10" s="11" t="s">
@@ -5618,7 +5613,7 @@
       <c r="AY10" s="11"/>
       <c r="AZ10" s="30"/>
     </row>
-    <row r="11" spans="3:55" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:55" ht="35" customHeight="1">
       <c r="C11" s="17" t="s">
         <v>1</v>
       </c>
@@ -5643,19 +5638,19 @@
       <c r="O11" s="16"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="172" t="s">
+      <c r="R11" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="S11" s="173" t="s">
+      <c r="S11" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="T11" s="174" t="s">
+      <c r="T11" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="U11" s="173" t="s">
+      <c r="U11" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="V11" s="175" t="s">
+      <c r="V11" s="261" t="s">
         <v>14</v>
       </c>
       <c r="W11" s="21" t="s">
@@ -5664,13 +5659,13 @@
       <c r="X11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Y11" s="141" t="s">
+      <c r="Y11" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="Z11" s="140" t="s">
+      <c r="Z11" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="142" t="s">
+      <c r="AA11" s="228" t="s">
         <v>19</v>
       </c>
       <c r="AB11" s="21" t="s">
@@ -5682,10 +5677,10 @@
       <c r="AD11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AE11" s="173" t="s">
+      <c r="AE11" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="AF11" s="175" t="s">
+      <c r="AF11" s="261" t="s">
         <v>25</v>
       </c>
       <c r="AG11" s="21"/>
@@ -5719,7 +5714,7 @@
       <c r="AY11" s="8"/>
       <c r="AZ11" s="32"/>
     </row>
-    <row r="12" spans="3:55" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:55" ht="35" customHeight="1">
       <c r="C12" s="27" t="s">
         <v>1</v>
       </c>
@@ -5756,13 +5751,13 @@
       <c r="S12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="T12" s="137" t="s">
+      <c r="T12" s="223" t="s">
         <v>12</v>
       </c>
       <c r="U12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="V12" s="176" t="s">
+      <c r="V12" s="262" t="s">
         <v>9</v>
       </c>
       <c r="W12" s="18" t="s">
@@ -5774,37 +5769,37 @@
       <c r="Y12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Z12" s="180" t="s">
+      <c r="Z12" s="266" t="s">
         <v>9</v>
       </c>
-      <c r="AA12" s="176" t="s">
+      <c r="AA12" s="262" t="s">
         <v>9</v>
       </c>
       <c r="AB12" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="AC12" s="180" t="s">
+      <c r="AC12" s="266" t="s">
         <v>22</v>
       </c>
       <c r="AD12" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="AE12" s="180" t="s">
+      <c r="AE12" s="266" t="s">
         <v>27</v>
       </c>
-      <c r="AF12" s="176" t="s">
+      <c r="AF12" s="262" t="s">
         <v>25</v>
       </c>
       <c r="AL12" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="AM12" s="180" t="s">
+      <c r="AM12" s="266" t="s">
         <v>32</v>
       </c>
       <c r="AN12" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="AO12" s="180"/>
+      <c r="AO12" s="266"/>
       <c r="AP12" s="20"/>
       <c r="AQ12" s="18"/>
       <c r="AR12" s="9"/>
@@ -5817,7 +5812,7 @@
       <c r="AY12" s="9"/>
       <c r="AZ12" s="33"/>
     </row>
-    <row r="13" spans="3:55" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:55" ht="35" customHeight="1" thickBot="1">
       <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
@@ -5849,16 +5844,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="133" t="s">
+      <c r="S13" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="133" t="s">
+      <c r="T13" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="133" t="s">
+      <c r="U13" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="171" t="s">
+      <c r="V13" s="257" t="s">
         <v>13</v>
       </c>
       <c r="W13" s="6" t="s">
@@ -5867,40 +5862,40 @@
       <c r="X13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Y13" s="170" t="s">
+      <c r="Y13" s="256" t="s">
         <v>9</v>
       </c>
-      <c r="Z13" s="170" t="s">
+      <c r="Z13" s="256" t="s">
         <v>9</v>
       </c>
-      <c r="AA13" s="171" t="s">
+      <c r="AA13" s="257" t="s">
         <v>9</v>
       </c>
-      <c r="AB13" s="169" t="s">
+      <c r="AB13" s="255" t="s">
         <v>25</v>
       </c>
       <c r="AC13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AD13" s="170" t="s">
+      <c r="AD13" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="AE13" s="170" t="s">
+      <c r="AE13" s="256" t="s">
         <v>22</v>
       </c>
-      <c r="AF13" s="171" t="s">
+      <c r="AF13" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="AL13" s="169" t="s">
+      <c r="AL13" s="255" t="s">
         <v>32</v>
       </c>
-      <c r="AM13" s="170" t="s">
+      <c r="AM13" s="256" t="s">
         <v>32</v>
       </c>
-      <c r="AN13" s="170" t="s">
+      <c r="AN13" s="256" t="s">
         <v>32</v>
       </c>
-      <c r="AO13" s="170"/>
+      <c r="AO13" s="256"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="6"/>
       <c r="AR13" s="11"/>
@@ -5913,7 +5908,7 @@
       <c r="AY13" s="11"/>
       <c r="AZ13" s="7"/>
     </row>
-    <row r="14" spans="3:55" ht="35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:55" ht="35" customHeight="1" thickTop="1" thickBot="1">
       <c r="C14" s="29" t="s">
         <v>0</v>
       </c>
@@ -5944,16 +5939,16 @@
       <c r="Q14" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="R14" s="177" t="s">
+      <c r="R14" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="S14" s="178" t="s">
+      <c r="S14" s="264" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="179" t="s">
+      <c r="T14" s="265" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="178" t="s">
+      <c r="U14" s="264" t="s">
         <v>10</v>
       </c>
       <c r="V14" s="25" t="s">
@@ -5965,40 +5960,40 @@
       <c r="X14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y14" s="179" t="s">
+      <c r="Y14" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="Z14" s="178" t="s">
+      <c r="Z14" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="AA14" s="181" t="s">
+      <c r="AA14" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="AB14" s="177" t="s">
+      <c r="AB14" s="263" t="s">
         <v>22</v>
       </c>
-      <c r="AC14" s="178" t="s">
+      <c r="AC14" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="AD14" s="182" t="s">
+      <c r="AD14" s="268" t="s">
         <v>23</v>
       </c>
-      <c r="AE14" s="178" t="s">
+      <c r="AE14" s="264" t="s">
         <v>24</v>
       </c>
-      <c r="AF14" s="181" t="s">
+      <c r="AF14" s="267" t="s">
         <v>24</v>
       </c>
-      <c r="AL14" s="177" t="s">
+      <c r="AL14" s="263" t="s">
         <v>32</v>
       </c>
-      <c r="AM14" s="178" t="s">
+      <c r="AM14" s="264" t="s">
         <v>32</v>
       </c>
-      <c r="AN14" s="179" t="s">
+      <c r="AN14" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="AO14" s="178" t="s">
+      <c r="AO14" s="264" t="s">
         <v>32</v>
       </c>
       <c r="AP14" s="25"/>
@@ -6012,199 +6007,192 @@
       <c r="AX14" s="24"/>
       <c r="AY14" s="1"/>
       <c r="AZ14" s="34"/>
-      <c r="BA14" s="217" t="s">
+      <c r="BA14" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="BB14" s="218"/>
-      <c r="BC14" s="219"/>
-    </row>
-    <row r="15" spans="3:55" ht="35" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="241" t="s">
+      <c r="BB14" s="139"/>
+      <c r="BC14" s="140"/>
+    </row>
+    <row r="15" spans="3:55" ht="35" customHeight="1" thickTop="1">
+      <c r="C15" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="242"/>
-      <c r="E15" s="242"/>
-      <c r="F15" s="242"/>
-      <c r="G15" s="250"/>
-      <c r="H15" s="241" t="s">
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="242"/>
-      <c r="J15" s="242"/>
-      <c r="K15" s="242"/>
-      <c r="L15" s="243"/>
-      <c r="M15" s="244" t="s">
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="N15" s="242"/>
-      <c r="O15" s="242"/>
-      <c r="P15" s="242"/>
-      <c r="Q15" s="243"/>
-      <c r="R15" s="241" t="s">
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="159"/>
+      <c r="R15" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="S15" s="242"/>
-      <c r="T15" s="242"/>
-      <c r="U15" s="242"/>
-      <c r="V15" s="243"/>
-      <c r="W15" s="244" t="s">
+      <c r="S15" s="136"/>
+      <c r="T15" s="136"/>
+      <c r="U15" s="136"/>
+      <c r="V15" s="159"/>
+      <c r="W15" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="X15" s="242"/>
-      <c r="Y15" s="242"/>
-      <c r="Z15" s="242"/>
-      <c r="AA15" s="243"/>
-      <c r="AB15" s="226" t="s">
+      <c r="X15" s="136"/>
+      <c r="Y15" s="136"/>
+      <c r="Z15" s="136"/>
+      <c r="AA15" s="159"/>
+      <c r="AB15" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="AC15" s="227"/>
-      <c r="AD15" s="227"/>
-      <c r="AE15" s="227"/>
-      <c r="AF15" s="228"/>
-      <c r="AG15" s="231" t="s">
+      <c r="AC15" s="148"/>
+      <c r="AD15" s="148"/>
+      <c r="AE15" s="148"/>
+      <c r="AF15" s="149"/>
+      <c r="AG15" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="AH15" s="227"/>
-      <c r="AI15" s="227"/>
-      <c r="AJ15" s="227"/>
-      <c r="AK15" s="228"/>
-      <c r="AL15" s="231" t="s">
+      <c r="AH15" s="148"/>
+      <c r="AI15" s="148"/>
+      <c r="AJ15" s="148"/>
+      <c r="AK15" s="149"/>
+      <c r="AL15" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="AM15" s="227"/>
-      <c r="AN15" s="227"/>
-      <c r="AO15" s="227"/>
-      <c r="AP15" s="245"/>
-      <c r="AQ15" s="236" t="s">
+      <c r="AM15" s="148"/>
+      <c r="AN15" s="148"/>
+      <c r="AO15" s="148"/>
+      <c r="AP15" s="161"/>
+      <c r="AQ15" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="AR15" s="237"/>
-      <c r="AS15" s="237"/>
-      <c r="AT15" s="237"/>
-      <c r="AU15" s="238"/>
-      <c r="AV15" s="239" t="s">
+      <c r="AR15" s="155"/>
+      <c r="AS15" s="155"/>
+      <c r="AT15" s="155"/>
+      <c r="AU15" s="156"/>
+      <c r="AV15" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="AW15" s="237"/>
-      <c r="AX15" s="237"/>
-      <c r="AY15" s="237"/>
-      <c r="AZ15" s="240"/>
-      <c r="BA15" s="220"/>
-      <c r="BB15" s="221"/>
-      <c r="BC15" s="222"/>
-    </row>
-    <row r="16" spans="3:55" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="229" t="s">
+      <c r="AW15" s="155"/>
+      <c r="AX15" s="155"/>
+      <c r="AY15" s="155"/>
+      <c r="AZ15" s="158"/>
+      <c r="BA15" s="141"/>
+      <c r="BB15" s="142"/>
+      <c r="BC15" s="143"/>
+    </row>
+    <row r="16" spans="3:55" ht="35" customHeight="1" thickBot="1">
+      <c r="C16" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="230"/>
-      <c r="E16" s="230"/>
-      <c r="F16" s="230"/>
-      <c r="G16" s="235"/>
-      <c r="H16" s="229" t="s">
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="230"/>
-      <c r="J16" s="230"/>
-      <c r="K16" s="230"/>
-      <c r="L16" s="230"/>
-      <c r="M16" s="230"/>
-      <c r="N16" s="230"/>
-      <c r="O16" s="230"/>
-      <c r="P16" s="230"/>
-      <c r="Q16" s="230"/>
-      <c r="R16" s="229" t="s">
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="S16" s="230"/>
-      <c r="T16" s="230"/>
-      <c r="U16" s="230"/>
-      <c r="V16" s="230"/>
-      <c r="W16" s="230"/>
-      <c r="X16" s="230"/>
-      <c r="Y16" s="230"/>
-      <c r="Z16" s="230"/>
-      <c r="AA16" s="230"/>
-      <c r="AB16" s="232" t="s">
+      <c r="S16" s="133"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="133"/>
+      <c r="V16" s="133"/>
+      <c r="W16" s="133"/>
+      <c r="X16" s="133"/>
+      <c r="Y16" s="133"/>
+      <c r="Z16" s="133"/>
+      <c r="AA16" s="133"/>
+      <c r="AB16" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="AC16" s="233"/>
-      <c r="AD16" s="233"/>
-      <c r="AE16" s="233"/>
-      <c r="AF16" s="233"/>
-      <c r="AG16" s="233"/>
-      <c r="AH16" s="233"/>
-      <c r="AI16" s="233"/>
-      <c r="AJ16" s="233"/>
-      <c r="AK16" s="233"/>
-      <c r="AL16" s="233"/>
-      <c r="AM16" s="233"/>
-      <c r="AN16" s="233"/>
-      <c r="AO16" s="233"/>
-      <c r="AP16" s="234"/>
-      <c r="AQ16" s="229" t="s">
+      <c r="AC16" s="152"/>
+      <c r="AD16" s="152"/>
+      <c r="AE16" s="152"/>
+      <c r="AF16" s="152"/>
+      <c r="AG16" s="152"/>
+      <c r="AH16" s="152"/>
+      <c r="AI16" s="152"/>
+      <c r="AJ16" s="152"/>
+      <c r="AK16" s="152"/>
+      <c r="AL16" s="152"/>
+      <c r="AM16" s="152"/>
+      <c r="AN16" s="152"/>
+      <c r="AO16" s="152"/>
+      <c r="AP16" s="153"/>
+      <c r="AQ16" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="AR16" s="230"/>
-      <c r="AS16" s="230"/>
-      <c r="AT16" s="230"/>
-      <c r="AU16" s="230"/>
-      <c r="AV16" s="230"/>
-      <c r="AW16" s="230"/>
-      <c r="AX16" s="230"/>
-      <c r="AY16" s="230"/>
-      <c r="AZ16" s="235"/>
-      <c r="BA16" s="223"/>
-      <c r="BB16" s="224"/>
-      <c r="BC16" s="225"/>
-    </row>
-    <row r="17" spans="3:8" ht="35" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="247"/>
-      <c r="D18" s="247"/>
+      <c r="AR16" s="133"/>
+      <c r="AS16" s="133"/>
+      <c r="AT16" s="133"/>
+      <c r="AU16" s="133"/>
+      <c r="AV16" s="133"/>
+      <c r="AW16" s="133"/>
+      <c r="AX16" s="133"/>
+      <c r="AY16" s="133"/>
+      <c r="AZ16" s="134"/>
+      <c r="BA16" s="144"/>
+      <c r="BB16" s="145"/>
+      <c r="BC16" s="146"/>
+    </row>
+    <row r="17" spans="3:8" ht="35" customHeight="1" thickTop="1"/>
+    <row r="18" spans="3:8" ht="35" customHeight="1">
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="214"/>
+      <c r="G18" s="300"/>
       <c r="H18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:8" ht="35" customHeight="1">
       <c r="C19" s="10"/>
-      <c r="D19" s="246"/>
-      <c r="E19" s="246"/>
-      <c r="F19" s="246"/>
-      <c r="G19" s="215"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="301"/>
       <c r="H19" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:8" ht="35" customHeight="1">
       <c r="C20" s="10"/>
-      <c r="D20" s="246"/>
-      <c r="E20" s="246"/>
-      <c r="F20" s="246"/>
-      <c r="G20" s="216"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="302"/>
       <c r="H20" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:8" ht="35" customHeight="1">
       <c r="C21" s="10"/>
-      <c r="D21" s="246"/>
-      <c r="E21" s="246"/>
-      <c r="F21" s="246"/>
-      <c r="G21" s="246"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="W1:AF1"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C15:G15"/>
     <mergeCell ref="BA14:BC16"/>
     <mergeCell ref="AB15:AF15"/>
     <mergeCell ref="H16:Q16"/>
@@ -6219,11 +6207,23 @@
     <mergeCell ref="R15:V15"/>
     <mergeCell ref="W15:AA15"/>
     <mergeCell ref="AL15:AP15"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="W1:AF1"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C15:G15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.4" right="0.30000000000000004" top="0.59" bottom="0.59" header="0.5" footer="0.5"/>
   <pageSetup scale="70" fitToWidth="2" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6235,13 +6235,13 @@
       <selection activeCell="C3" sqref="C3:AZ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="52" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:52" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:52" ht="35" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:52" ht="16" thickBot="1"/>
+    <row r="3" spans="3:52" ht="35" customHeight="1" thickTop="1">
       <c r="C3" s="12"/>
       <c r="D3" s="5"/>
       <c r="E3" s="13"/>
@@ -6293,7 +6293,7 @@
       <c r="AY3" s="5"/>
       <c r="AZ3" s="31"/>
     </row>
-    <row r="4" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:52" ht="35" customHeight="1">
       <c r="C4" s="2"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -6345,7 +6345,7 @@
       <c r="AY4" s="11"/>
       <c r="AZ4" s="30"/>
     </row>
-    <row r="5" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:52" ht="35" customHeight="1">
       <c r="C5" s="17"/>
       <c r="D5" s="8"/>
       <c r="E5" s="16"/>
@@ -6397,7 +6397,7 @@
       <c r="AY5" s="8"/>
       <c r="AZ5" s="32"/>
     </row>
-    <row r="6" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:52" ht="35" customHeight="1">
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
       <c r="E6" s="19"/>
@@ -6449,7 +6449,7 @@
       <c r="AY6" s="9"/>
       <c r="AZ6" s="33"/>
     </row>
-    <row r="7" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:52" ht="35" customHeight="1">
       <c r="C7" s="2"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -6501,7 +6501,7 @@
       <c r="AY7" s="11"/>
       <c r="AZ7" s="7"/>
     </row>
-    <row r="8" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:52" ht="35" customHeight="1">
       <c r="C8" s="17"/>
       <c r="D8" s="8"/>
       <c r="E8" s="16"/>
@@ -6553,7 +6553,7 @@
       <c r="AY8" s="8"/>
       <c r="AZ8" s="32"/>
     </row>
-    <row r="9" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:52" ht="35" customHeight="1">
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="19"/>
@@ -6605,7 +6605,7 @@
       <c r="AY9" s="9"/>
       <c r="AZ9" s="33"/>
     </row>
-    <row r="10" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:52" ht="35" customHeight="1">
       <c r="C10" s="2"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6657,7 +6657,7 @@
       <c r="AY10" s="11"/>
       <c r="AZ10" s="30"/>
     </row>
-    <row r="11" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:52" ht="35" customHeight="1">
       <c r="C11" s="17"/>
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
@@ -6709,7 +6709,7 @@
       <c r="AY11" s="8"/>
       <c r="AZ11" s="32"/>
     </row>
-    <row r="12" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:52" ht="35" customHeight="1">
       <c r="C12" s="27"/>
       <c r="D12" s="28"/>
       <c r="E12" s="19"/>
@@ -6761,7 +6761,7 @@
       <c r="AY12" s="9"/>
       <c r="AZ12" s="33"/>
     </row>
-    <row r="13" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:52" ht="35" customHeight="1">
       <c r="C13" s="2"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -6813,7 +6813,7 @@
       <c r="AY13" s="11"/>
       <c r="AZ13" s="7"/>
     </row>
-    <row r="14" spans="3:52" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:52" ht="35" customHeight="1" thickBot="1">
       <c r="C14" s="29"/>
       <c r="D14" s="1"/>
       <c r="E14" s="24"/>
@@ -6865,9 +6865,14 @@
       <c r="AY14" s="1"/>
       <c r="AZ14" s="34"/>
     </row>
-    <row r="15" spans="3:52" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="3:52" ht="16" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6878,13 +6883,13 @@
   </sheetPr>
   <dimension ref="C1:BG39"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AJ21" sqref="AJ21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="65" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="5:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="5:59" ht="35" customHeight="1">
       <c r="E1" s="55"/>
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
@@ -6905,23 +6910,23 @@
       <c r="V1" s="55"/>
       <c r="W1" s="55"/>
       <c r="X1" s="55"/>
-      <c r="Y1" s="248" t="s">
+      <c r="Y1" s="130" t="s">
         <v>210</v>
       </c>
-      <c r="Z1" s="248"/>
-      <c r="AA1" s="248"/>
-      <c r="AB1" s="248"/>
-      <c r="AC1" s="248"/>
-      <c r="AD1" s="248"/>
-      <c r="AE1" s="248"/>
-      <c r="AF1" s="248"/>
-      <c r="AG1" s="248"/>
-      <c r="AH1" s="248"/>
-      <c r="AI1" s="248"/>
-      <c r="AJ1" s="248"/>
-      <c r="AK1" s="248"/>
-      <c r="AL1" s="248"/>
-      <c r="AM1" s="248"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="130"/>
+      <c r="AH1" s="130"/>
+      <c r="AI1" s="130"/>
+      <c r="AJ1" s="130"/>
+      <c r="AK1" s="130"/>
+      <c r="AL1" s="130"/>
+      <c r="AM1" s="130"/>
       <c r="AN1" s="55"/>
       <c r="AO1" s="55"/>
       <c r="AP1" s="55"/>
@@ -6943,8 +6948,8 @@
       <c r="BF1" s="55"/>
       <c r="BG1" s="55"/>
     </row>
-    <row r="2" spans="5:59" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="5:59" ht="35" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="5:59" ht="35" customHeight="1" thickBot="1"/>
+    <row r="3" spans="5:59" ht="35" customHeight="1" thickTop="1">
       <c r="E3" s="12"/>
       <c r="F3" s="5"/>
       <c r="G3" s="13"/>
@@ -7001,7 +7006,7 @@
       <c r="BF3" s="5"/>
       <c r="BG3" s="31"/>
     </row>
-    <row r="4" spans="5:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="5:59" ht="35" customHeight="1">
       <c r="E4" s="2"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -7032,13 +7037,13 @@
       <c r="AF4" s="11"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="4"/>
-      <c r="AI4" s="132" t="s">
+      <c r="AI4" s="218" t="s">
         <v>112</v>
       </c>
-      <c r="AJ4" s="133" t="s">
+      <c r="AJ4" s="219" t="s">
         <v>112</v>
       </c>
-      <c r="AK4" s="133" t="s">
+      <c r="AK4" s="219" t="s">
         <v>112</v>
       </c>
       <c r="AL4" s="11"/>
@@ -7051,16 +7056,16 @@
       <c r="AS4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="AT4" s="170" t="s">
+      <c r="AT4" s="256" t="s">
         <v>81</v>
       </c>
-      <c r="AU4" s="170" t="s">
+      <c r="AU4" s="256" t="s">
         <v>81</v>
       </c>
-      <c r="AV4" s="170" t="s">
+      <c r="AV4" s="256" t="s">
         <v>52</v>
       </c>
-      <c r="AW4" s="171" t="s">
+      <c r="AW4" s="257" t="s">
         <v>144</v>
       </c>
       <c r="AX4" s="6"/>
@@ -7074,7 +7079,7 @@
       <c r="BF4" s="11"/>
       <c r="BG4" s="30"/>
     </row>
-    <row r="5" spans="5:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="5:59" ht="35" customHeight="1">
       <c r="E5" s="17"/>
       <c r="F5" s="8"/>
       <c r="G5" s="16"/>
@@ -7105,13 +7110,13 @@
       <c r="AF5" s="16"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="15"/>
-      <c r="AI5" s="139" t="s">
+      <c r="AI5" s="225" t="s">
         <v>114</v>
       </c>
-      <c r="AJ5" s="140" t="s">
+      <c r="AJ5" s="226" t="s">
         <v>112</v>
       </c>
-      <c r="AK5" s="141" t="s">
+      <c r="AK5" s="227" t="s">
         <v>112</v>
       </c>
       <c r="AL5" s="8"/>
@@ -7121,13 +7126,13 @@
       <c r="AP5" s="16"/>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="15"/>
-      <c r="AS5" s="139" t="s">
+      <c r="AS5" s="225" t="s">
         <v>49</v>
       </c>
       <c r="AT5" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="AU5" s="174" t="s">
+      <c r="AU5" s="260" t="s">
         <v>154</v>
       </c>
       <c r="AV5" s="8" t="s">
@@ -7145,7 +7150,7 @@
       <c r="BF5" s="8"/>
       <c r="BG5" s="32"/>
     </row>
-    <row r="6" spans="5:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="5:59" ht="35" customHeight="1">
       <c r="E6" s="27"/>
       <c r="F6" s="28"/>
       <c r="G6" s="19"/>
@@ -7176,7 +7181,7 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="9"/>
       <c r="AH6" s="20"/>
-      <c r="AI6" s="135" t="s">
+      <c r="AI6" s="221" t="s">
         <v>112</v>
       </c>
       <c r="AJ6" s="9" t="s">
@@ -7195,13 +7200,13 @@
       <c r="AS6" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="AT6" s="136" t="s">
+      <c r="AT6" s="222" t="s">
         <v>123</v>
       </c>
-      <c r="AU6" s="137" t="s">
+      <c r="AU6" s="223" t="s">
         <v>123</v>
       </c>
-      <c r="AV6" s="180" t="s">
+      <c r="AV6" s="266" t="s">
         <v>154</v>
       </c>
       <c r="AW6" s="20"/>
@@ -7216,7 +7221,7 @@
       <c r="BF6" s="9"/>
       <c r="BG6" s="33"/>
     </row>
-    <row r="7" spans="5:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="5:59" ht="35" customHeight="1">
       <c r="E7" s="2"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -7261,16 +7266,16 @@
       <c r="AP7" s="11"/>
       <c r="AQ7" s="11"/>
       <c r="AR7" s="4"/>
-      <c r="AS7" s="169" t="s">
+      <c r="AS7" s="255" t="s">
         <v>129</v>
       </c>
-      <c r="AT7" s="165" t="s">
+      <c r="AT7" s="251" t="s">
         <v>119</v>
       </c>
-      <c r="AU7" s="170" t="s">
+      <c r="AU7" s="256" t="s">
         <v>144</v>
       </c>
-      <c r="AV7" s="170" t="s">
+      <c r="AV7" s="256" t="s">
         <v>154</v>
       </c>
       <c r="AW7" s="4" t="s">
@@ -7287,7 +7292,7 @@
       <c r="BF7" s="11"/>
       <c r="BG7" s="7"/>
     </row>
-    <row r="8" spans="5:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="5:59" ht="35" customHeight="1">
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
       <c r="G8" s="16"/>
@@ -7332,16 +7337,16 @@
       <c r="AP8" s="16"/>
       <c r="AQ8" s="8"/>
       <c r="AR8" s="15"/>
-      <c r="AS8" s="172" t="s">
+      <c r="AS8" s="258" t="s">
         <v>152</v>
       </c>
-      <c r="AT8" s="173" t="s">
+      <c r="AT8" s="259" t="s">
         <v>144</v>
       </c>
-      <c r="AU8" s="174" t="s">
+      <c r="AU8" s="260" t="s">
         <v>80</v>
       </c>
-      <c r="AV8" s="173" t="s">
+      <c r="AV8" s="259" t="s">
         <v>153</v>
       </c>
       <c r="AW8" s="15"/>
@@ -7356,7 +7361,7 @@
       <c r="BF8" s="8"/>
       <c r="BG8" s="32"/>
     </row>
-    <row r="9" spans="5:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="5:59" ht="35" customHeight="1">
       <c r="E9" s="27"/>
       <c r="F9" s="28"/>
       <c r="G9" s="19"/>
@@ -7437,7 +7442,7 @@
       <c r="BF9" s="9"/>
       <c r="BG9" s="33"/>
     </row>
-    <row r="10" spans="5:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="5:59" ht="35" customHeight="1">
       <c r="E10" s="2"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -7482,7 +7487,7 @@
       <c r="AJ10" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AK10" s="144" t="s">
+      <c r="AK10" s="230" t="s">
         <v>116</v>
       </c>
       <c r="AL10" s="11" t="s">
@@ -7522,7 +7527,7 @@
       <c r="BF10" s="11"/>
       <c r="BG10" s="30"/>
     </row>
-    <row r="11" spans="5:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="5:59" ht="35" customHeight="1">
       <c r="E11" s="17"/>
       <c r="F11" s="8"/>
       <c r="G11" s="16"/>
@@ -7561,10 +7566,10 @@
       <c r="AF11" s="16"/>
       <c r="AG11" s="8"/>
       <c r="AH11" s="15"/>
-      <c r="AI11" s="139" t="s">
+      <c r="AI11" s="225" t="s">
         <v>101</v>
       </c>
-      <c r="AJ11" s="140" t="s">
+      <c r="AJ11" s="226" t="s">
         <v>108</v>
       </c>
       <c r="AK11" s="16" t="s">
@@ -7605,7 +7610,7 @@
       <c r="BF11" s="8"/>
       <c r="BG11" s="32"/>
     </row>
-    <row r="12" spans="5:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="5:59" ht="35" customHeight="1">
       <c r="E12" s="27"/>
       <c r="F12" s="28"/>
       <c r="G12" s="19"/>
@@ -7639,10 +7644,10 @@
       <c r="AI12" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AJ12" s="136" t="s">
+      <c r="AJ12" s="222" t="s">
         <v>104</v>
       </c>
-      <c r="AK12" s="137" t="s">
+      <c r="AK12" s="223" t="s">
         <v>104</v>
       </c>
       <c r="AL12" s="9" t="s">
@@ -7651,19 +7656,19 @@
       <c r="AM12" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="AN12" s="128" t="s">
+      <c r="AN12" s="214" t="s">
         <v>126</v>
       </c>
-      <c r="AO12" s="129" t="s">
+      <c r="AO12" s="215" t="s">
         <v>126</v>
       </c>
-      <c r="AP12" s="130" t="s">
+      <c r="AP12" s="216" t="s">
         <v>128</v>
       </c>
-      <c r="AQ12" s="129" t="s">
+      <c r="AQ12" s="215" t="s">
         <v>128</v>
       </c>
-      <c r="AR12" s="131" t="s">
+      <c r="AR12" s="217" t="s">
         <v>128</v>
       </c>
       <c r="AS12" s="18" t="s">
@@ -7692,7 +7697,7 @@
       <c r="BF12" s="9"/>
       <c r="BG12" s="33"/>
     </row>
-    <row r="13" spans="5:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="5:59" ht="35" customHeight="1">
       <c r="E13" s="2"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -7723,13 +7728,13 @@
       <c r="AF13" s="11"/>
       <c r="AG13" s="11"/>
       <c r="AH13" s="4"/>
-      <c r="AI13" s="132" t="s">
+      <c r="AI13" s="218" t="s">
         <v>104</v>
       </c>
-      <c r="AJ13" s="133" t="s">
+      <c r="AJ13" s="219" t="s">
         <v>104</v>
       </c>
-      <c r="AK13" s="133" t="s">
+      <c r="AK13" s="219" t="s">
         <v>104</v>
       </c>
       <c r="AL13" s="11" t="s">
@@ -7738,19 +7743,19 @@
       <c r="AM13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AN13" s="132" t="s">
+      <c r="AN13" s="218" t="s">
         <v>126</v>
       </c>
-      <c r="AO13" s="133" t="s">
+      <c r="AO13" s="219" t="s">
         <v>126</v>
       </c>
-      <c r="AP13" s="133" t="s">
+      <c r="AP13" s="219" t="s">
         <v>128</v>
       </c>
-      <c r="AQ13" s="133" t="s">
+      <c r="AQ13" s="219" t="s">
         <v>128</v>
       </c>
-      <c r="AR13" s="134" t="s">
+      <c r="AR13" s="220" t="s">
         <v>128</v>
       </c>
       <c r="AS13" s="6" t="s">
@@ -7779,7 +7784,7 @@
       <c r="BF13" s="11"/>
       <c r="BG13" s="7"/>
     </row>
-    <row r="14" spans="5:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="5:59" ht="35" customHeight="1">
       <c r="E14" s="17"/>
       <c r="F14" s="40"/>
       <c r="G14" s="16"/>
@@ -7810,10 +7815,10 @@
       <c r="AF14" s="16"/>
       <c r="AG14" s="40"/>
       <c r="AH14" s="15"/>
-      <c r="AI14" s="139" t="s">
+      <c r="AI14" s="225" t="s">
         <v>104</v>
       </c>
-      <c r="AJ14" s="153" t="s">
+      <c r="AJ14" s="239" t="s">
         <v>104</v>
       </c>
       <c r="AK14" s="16" t="s">
@@ -7822,28 +7827,28 @@
       <c r="AL14" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="AM14" s="142" t="s">
+      <c r="AM14" s="228" t="s">
         <v>89</v>
       </c>
-      <c r="AN14" s="139" t="s">
+      <c r="AN14" s="225" t="s">
         <v>107</v>
       </c>
-      <c r="AO14" s="140" t="s">
+      <c r="AO14" s="226" t="s">
         <v>128</v>
       </c>
-      <c r="AP14" s="141" t="s">
+      <c r="AP14" s="227" t="s">
         <v>128</v>
       </c>
-      <c r="AQ14" s="140" t="s">
+      <c r="AQ14" s="226" t="s">
         <v>126</v>
       </c>
-      <c r="AR14" s="142" t="s">
+      <c r="AR14" s="228" t="s">
         <v>126</v>
       </c>
       <c r="AS14" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="AT14" s="188" t="s">
+      <c r="AT14" s="274" t="s">
         <v>81</v>
       </c>
       <c r="AU14" s="16" t="s">
@@ -7866,7 +7871,7 @@
       <c r="BF14" s="40"/>
       <c r="BG14" s="32"/>
     </row>
-    <row r="15" spans="5:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="5:59" ht="35" customHeight="1">
       <c r="E15" s="36"/>
       <c r="F15" s="3"/>
       <c r="G15" s="26"/>
@@ -7916,37 +7921,37 @@
       <c r="AK15" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="AL15" s="129" t="s">
+      <c r="AL15" s="215" t="s">
         <v>90</v>
       </c>
-      <c r="AM15" s="131" t="s">
+      <c r="AM15" s="217" t="s">
         <v>90</v>
       </c>
-      <c r="AN15" s="154" t="s">
+      <c r="AN15" s="240" t="s">
         <v>129</v>
       </c>
-      <c r="AO15" s="154" t="s">
+      <c r="AO15" s="240" t="s">
         <v>129</v>
       </c>
-      <c r="AP15" s="155" t="s">
+      <c r="AP15" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="AQ15" s="155" t="s">
+      <c r="AQ15" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="AR15" s="155" t="s">
+      <c r="AR15" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="AS15" s="128" t="s">
+      <c r="AS15" s="214" t="s">
         <v>129</v>
       </c>
-      <c r="AT15" s="129" t="s">
+      <c r="AT15" s="215" t="s">
         <v>129</v>
       </c>
-      <c r="AU15" s="156" t="s">
+      <c r="AU15" s="242" t="s">
         <v>129</v>
       </c>
-      <c r="AV15" s="196" t="s">
+      <c r="AV15" s="282" t="s">
         <v>144</v>
       </c>
       <c r="AW15" s="37" t="s">
@@ -7963,20 +7968,20 @@
       <c r="BF15" s="3"/>
       <c r="BG15" s="39"/>
     </row>
-    <row r="16" spans="5:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E16" s="183" t="s">
+    <row r="16" spans="5:59" ht="35" customHeight="1">
+      <c r="E16" s="269" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="170" t="s">
+      <c r="F16" s="256" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="170" t="s">
+      <c r="G16" s="256" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="170" t="s">
+      <c r="H16" s="256" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="171" t="s">
+      <c r="I16" s="257" t="s">
         <v>56</v>
       </c>
       <c r="J16" s="6"/>
@@ -8020,37 +8025,37 @@
       <c r="AJ16" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AK16" s="133" t="s">
+      <c r="AK16" s="219" t="s">
         <v>90</v>
       </c>
-      <c r="AL16" s="133" t="s">
+      <c r="AL16" s="219" t="s">
         <v>90</v>
       </c>
-      <c r="AM16" s="134" t="s">
+      <c r="AM16" s="220" t="s">
         <v>90</v>
       </c>
-      <c r="AN16" s="154" t="s">
+      <c r="AN16" s="240" t="s">
         <v>129</v>
       </c>
-      <c r="AO16" s="154" t="s">
+      <c r="AO16" s="240" t="s">
         <v>129</v>
       </c>
-      <c r="AP16" s="155" t="s">
+      <c r="AP16" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="AQ16" s="155" t="s">
+      <c r="AQ16" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="AR16" s="155" t="s">
+      <c r="AR16" s="241" t="s">
         <v>130</v>
       </c>
       <c r="AS16" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AT16" s="133" t="s">
+      <c r="AT16" s="219" t="s">
         <v>133</v>
       </c>
-      <c r="AU16" s="147" t="s">
+      <c r="AU16" s="233" t="s">
         <v>140</v>
       </c>
       <c r="AV16" s="11" t="s">
@@ -8068,20 +8073,20 @@
       <c r="BF16" s="11"/>
       <c r="BG16" s="30"/>
     </row>
-    <row r="17" spans="3:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E17" s="184" t="s">
+    <row r="17" spans="3:59" ht="35" customHeight="1">
+      <c r="E17" s="270" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="173" t="s">
+      <c r="F17" s="259" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="174" t="s">
+      <c r="G17" s="260" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="173" t="s">
+      <c r="H17" s="259" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="175" t="s">
+      <c r="I17" s="261" t="s">
         <v>55</v>
       </c>
       <c r="J17" s="21"/>
@@ -8119,7 +8124,7 @@
       <c r="AF17" s="16"/>
       <c r="AG17" s="8"/>
       <c r="AH17" s="15"/>
-      <c r="AI17" s="139" t="s">
+      <c r="AI17" s="225" t="s">
         <v>90</v>
       </c>
       <c r="AJ17" s="8" t="s">
@@ -8130,22 +8135,22 @@
       </c>
       <c r="AL17" s="8"/>
       <c r="AM17" s="15"/>
-      <c r="AN17" s="155" t="s">
+      <c r="AN17" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="AO17" s="155" t="s">
+      <c r="AO17" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="AP17" s="154" t="s">
+      <c r="AP17" s="240" t="s">
         <v>129</v>
       </c>
-      <c r="AQ17" s="155" t="s">
+      <c r="AQ17" s="241" t="s">
         <v>141</v>
       </c>
-      <c r="AR17" s="154" t="s">
+      <c r="AR17" s="240" t="s">
         <v>129</v>
       </c>
-      <c r="AS17" s="172" t="s">
+      <c r="AS17" s="258" t="s">
         <v>140</v>
       </c>
       <c r="AT17" s="8" t="s">
@@ -8171,20 +8176,20 @@
       <c r="BF17" s="8"/>
       <c r="BG17" s="32"/>
     </row>
-    <row r="18" spans="3:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E18" s="185" t="s">
+    <row r="18" spans="3:59" ht="35" customHeight="1">
+      <c r="E18" s="271" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="186" t="s">
+      <c r="F18" s="272" t="s">
         <v>53</v>
       </c>
       <c r="G18" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="186" t="s">
+      <c r="H18" s="272" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="176" t="s">
+      <c r="I18" s="262" t="s">
         <v>53</v>
       </c>
       <c r="J18" s="18"/>
@@ -8231,7 +8236,7 @@
       <c r="AK18" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="AL18" s="136" t="s">
+      <c r="AL18" s="222" t="s">
         <v>94</v>
       </c>
       <c r="AM18" s="20" t="s">
@@ -8288,20 +8293,20 @@
       <c r="BF18" s="9"/>
       <c r="BG18" s="33"/>
     </row>
-    <row r="19" spans="3:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E19" s="183" t="s">
+    <row r="19" spans="3:59" ht="35" customHeight="1">
+      <c r="E19" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="187" t="s">
+      <c r="F19" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="187" t="s">
+      <c r="G19" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="187" t="s">
+      <c r="H19" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="171" t="s">
+      <c r="I19" s="257" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="6"/>
@@ -8344,7 +8349,7 @@
       <c r="AK19" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AL19" s="133" t="s">
+      <c r="AL19" s="219" t="s">
         <v>87</v>
       </c>
       <c r="AM19" s="4" t="s">
@@ -8395,7 +8400,7 @@
       <c r="BB19" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="BC19" s="129" t="s">
+      <c r="BC19" s="215" t="s">
         <v>118</v>
       </c>
       <c r="BD19" s="11" t="s">
@@ -8411,20 +8416,20 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="3:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E20" s="184" t="s">
+    <row r="20" spans="3:59" ht="35" customHeight="1">
+      <c r="E20" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="173" t="s">
+      <c r="F20" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="174" t="s">
+      <c r="G20" s="260" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="173" t="s">
+      <c r="H20" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="175" t="s">
+      <c r="I20" s="261" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="21"/>
@@ -8462,16 +8467,16 @@
       <c r="AF20" s="16"/>
       <c r="AG20" s="8"/>
       <c r="AH20" s="15"/>
-      <c r="AI20" s="139" t="s">
+      <c r="AI20" s="225" t="s">
         <v>87</v>
       </c>
       <c r="AJ20" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AK20" s="141" t="s">
+      <c r="AK20" s="227" t="s">
         <v>49</v>
       </c>
-      <c r="AL20" s="140" t="s">
+      <c r="AL20" s="226" t="s">
         <v>49</v>
       </c>
       <c r="AM20" s="15" t="s">
@@ -8531,27 +8536,27 @@
       <c r="BE20" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="BF20" s="136" t="s">
+      <c r="BF20" s="222" t="s">
         <v>118</v>
       </c>
-      <c r="BG20" s="157" t="s">
+      <c r="BG20" s="243" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="3:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="185" t="s">
+    <row r="21" spans="3:59" ht="35" customHeight="1">
+      <c r="E21" s="271" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="186" t="s">
+      <c r="F21" s="272" t="s">
         <v>53</v>
       </c>
       <c r="G21" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="186" t="s">
+      <c r="H21" s="272" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="176" t="s">
+      <c r="I21" s="262" t="s">
         <v>53</v>
       </c>
       <c r="J21" s="18"/>
@@ -8594,31 +8599,31 @@
       <c r="AA21" s="19"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="20"/>
-      <c r="AD21" s="135" t="s">
+      <c r="AD21" s="221" t="s">
         <v>80</v>
       </c>
-      <c r="AE21" s="136" t="s">
+      <c r="AE21" s="222" t="s">
         <v>81</v>
       </c>
-      <c r="AF21" s="137" t="s">
+      <c r="AF21" s="223" t="s">
         <v>78</v>
       </c>
-      <c r="AG21" s="136" t="s">
+      <c r="AG21" s="222" t="s">
         <v>78</v>
       </c>
-      <c r="AH21" s="138" t="s">
+      <c r="AH21" s="224" t="s">
         <v>79</v>
       </c>
-      <c r="AI21" s="135" t="s">
+      <c r="AI21" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="AJ21" s="143" t="s">
+      <c r="AJ21" s="229" t="s">
         <v>92</v>
       </c>
-      <c r="AK21" s="146" t="s">
+      <c r="AK21" s="232" t="s">
         <v>95</v>
       </c>
-      <c r="AL21" s="143" t="s">
+      <c r="AL21" s="229" t="s">
         <v>100</v>
       </c>
       <c r="AM21" s="126" t="s">
@@ -8633,10 +8638,10 @@
       <c r="AP21" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AQ21" s="136" t="s">
+      <c r="AQ21" s="222" t="s">
         <v>125</v>
       </c>
-      <c r="AR21" s="138" t="s">
+      <c r="AR21" s="224" t="s">
         <v>125</v>
       </c>
       <c r="AS21" s="18" t="s">
@@ -8645,7 +8650,7 @@
       <c r="AT21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AU21" s="137" t="s">
+      <c r="AU21" s="223" t="s">
         <v>133</v>
       </c>
       <c r="AV21" s="9"/>
@@ -8674,27 +8679,27 @@
       <c r="BE21" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="BF21" s="136" t="s">
+      <c r="BF21" s="222" t="s">
         <v>118</v>
       </c>
-      <c r="BG21" s="157" t="s">
+      <c r="BG21" s="243" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="3:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="183" t="s">
+    <row r="22" spans="3:59" ht="35" customHeight="1">
+      <c r="E22" s="269" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="187" t="s">
+      <c r="F22" s="273" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="187" t="s">
+      <c r="G22" s="273" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="187" t="s">
+      <c r="H22" s="273" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="171" t="s">
+      <c r="I22" s="257" t="s">
         <v>52</v>
       </c>
       <c r="J22" s="6"/>
@@ -8717,42 +8722,42 @@
       <c r="S22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T22" s="132" t="s">
+      <c r="T22" s="218" t="s">
         <v>211</v>
       </c>
-      <c r="U22" s="170" t="s">
+      <c r="U22" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="V22" s="170"/>
-      <c r="W22" s="170"/>
-      <c r="X22" s="171"/>
+      <c r="V22" s="256"/>
+      <c r="W22" s="256"/>
+      <c r="X22" s="257"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
       <c r="AB22" s="11"/>
       <c r="AC22" s="4"/>
-      <c r="AD22" s="132" t="s">
+      <c r="AD22" s="218" t="s">
         <v>80</v>
       </c>
-      <c r="AE22" s="133" t="s">
+      <c r="AE22" s="219" t="s">
         <v>81</v>
       </c>
-      <c r="AF22" s="133" t="s">
+      <c r="AF22" s="219" t="s">
         <v>78</v>
       </c>
-      <c r="AG22" s="133" t="s">
+      <c r="AG22" s="219" t="s">
         <v>79</v>
       </c>
-      <c r="AH22" s="134" t="s">
+      <c r="AH22" s="220" t="s">
         <v>79</v>
       </c>
       <c r="AI22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AJ22" s="144" t="s">
+      <c r="AJ22" s="230" t="s">
         <v>92</v>
       </c>
-      <c r="AK22" s="147" t="s">
+      <c r="AK22" s="233" t="s">
         <v>99</v>
       </c>
       <c r="AL22" s="11"/>
@@ -8766,19 +8771,19 @@
       <c r="AP22" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="AQ22" s="133" t="s">
+      <c r="AQ22" s="219" t="s">
         <v>124</v>
       </c>
-      <c r="AR22" s="134" t="s">
+      <c r="AR22" s="220" t="s">
         <v>124</v>
       </c>
-      <c r="AS22" s="169" t="s">
+      <c r="AS22" s="255" t="s">
         <v>133</v>
       </c>
-      <c r="AT22" s="133" t="s">
+      <c r="AT22" s="219" t="s">
         <v>133</v>
       </c>
-      <c r="AU22" s="133" t="s">
+      <c r="AU22" s="219" t="s">
         <v>133</v>
       </c>
       <c r="AV22" s="11"/>
@@ -8798,34 +8803,34 @@
       <c r="BB22" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="BC22" s="129" t="s">
+      <c r="BC22" s="215" t="s">
         <v>143</v>
       </c>
-      <c r="BD22" s="133" t="s">
+      <c r="BD22" s="219" t="s">
         <v>149</v>
       </c>
-      <c r="BE22" s="133" t="s">
+      <c r="BE22" s="219" t="s">
         <v>149</v>
       </c>
-      <c r="BF22" s="133" t="s">
+      <c r="BF22" s="219" t="s">
         <v>149</v>
       </c>
-      <c r="BG22" s="161"/>
-    </row>
-    <row r="23" spans="3:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="184" t="s">
+      <c r="BG22" s="247"/>
+    </row>
+    <row r="23" spans="3:59" ht="35" customHeight="1">
+      <c r="E23" s="270" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="173" t="s">
+      <c r="F23" s="259" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="174" t="s">
+      <c r="G23" s="260" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="173" t="s">
+      <c r="H23" s="259" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="175" t="s">
+      <c r="I23" s="261" t="s">
         <v>52</v>
       </c>
       <c r="J23" s="21"/>
@@ -8848,38 +8853,38 @@
       <c r="S23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="T23" s="172"/>
-      <c r="U23" s="173"/>
-      <c r="V23" s="174"/>
-      <c r="W23" s="173"/>
-      <c r="X23" s="175"/>
+      <c r="T23" s="258"/>
+      <c r="U23" s="259"/>
+      <c r="V23" s="260"/>
+      <c r="W23" s="259"/>
+      <c r="X23" s="261"/>
       <c r="Y23" s="21"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="16"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="15"/>
-      <c r="AD23" s="139" t="s">
+      <c r="AD23" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="AE23" s="140" t="s">
+      <c r="AE23" s="226" t="s">
         <v>78</v>
       </c>
-      <c r="AF23" s="141" t="s">
+      <c r="AF23" s="227" t="s">
         <v>78</v>
       </c>
-      <c r="AG23" s="140" t="s">
+      <c r="AG23" s="226" t="s">
         <v>79</v>
       </c>
-      <c r="AH23" s="142" t="s">
+      <c r="AH23" s="228" t="s">
         <v>79</v>
       </c>
-      <c r="AI23" s="139" t="s">
+      <c r="AI23" s="225" t="s">
         <v>92</v>
       </c>
-      <c r="AJ23" s="145" t="s">
+      <c r="AJ23" s="231" t="s">
         <v>92</v>
       </c>
-      <c r="AK23" s="148" t="s">
+      <c r="AK23" s="234" t="s">
         <v>99</v>
       </c>
       <c r="AL23" s="8"/>
@@ -8905,10 +8910,10 @@
       <c r="AT23" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AU23" s="141" t="s">
+      <c r="AU23" s="227" t="s">
         <v>133</v>
       </c>
-      <c r="AV23" s="140" t="s">
+      <c r="AV23" s="226" t="s">
         <v>133</v>
       </c>
       <c r="AW23" s="15"/>
@@ -8927,36 +8932,36 @@
       <c r="BB23" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="BC23" s="158" t="s">
+      <c r="BC23" s="244" t="s">
         <v>143</v>
       </c>
-      <c r="BD23" s="139" t="s">
+      <c r="BD23" s="225" t="s">
         <v>143</v>
       </c>
-      <c r="BE23" s="141" t="s">
+      <c r="BE23" s="227" t="s">
         <v>149</v>
       </c>
-      <c r="BF23" s="141" t="s">
+      <c r="BF23" s="227" t="s">
         <v>149</v>
       </c>
-      <c r="BG23" s="159" t="s">
+      <c r="BG23" s="245" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="3:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="185" t="s">
+    <row r="24" spans="3:59" ht="35" customHeight="1">
+      <c r="E24" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="186" t="s">
+      <c r="F24" s="272" t="s">
         <v>49</v>
       </c>
       <c r="G24" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="186" t="s">
+      <c r="H24" s="272" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="176" t="s">
+      <c r="I24" s="262" t="s">
         <v>51</v>
       </c>
       <c r="J24" s="18"/>
@@ -8994,35 +8999,35 @@
       <c r="AH24" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="AI24" s="135" t="s">
+      <c r="AI24" s="221" t="s">
         <v>96</v>
       </c>
       <c r="AJ24" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AK24" s="137" t="s">
+      <c r="AK24" s="223" t="s">
         <v>98</v>
       </c>
       <c r="AL24" s="9" t="s">
         <v>97</v>
       </c>
       <c r="AM24" s="20"/>
-      <c r="AN24" s="135" t="s">
+      <c r="AN24" s="221" t="s">
         <v>120</v>
       </c>
-      <c r="AO24" s="136" t="s">
+      <c r="AO24" s="222" t="s">
         <v>113</v>
       </c>
-      <c r="AP24" s="137" t="s">
+      <c r="AP24" s="223" t="s">
         <v>121</v>
       </c>
-      <c r="AQ24" s="136" t="s">
+      <c r="AQ24" s="222" t="s">
         <v>121</v>
       </c>
-      <c r="AR24" s="138" t="s">
+      <c r="AR24" s="224" t="s">
         <v>121</v>
       </c>
-      <c r="AS24" s="152" t="s">
+      <c r="AS24" s="238" t="s">
         <v>135</v>
       </c>
       <c r="AT24" s="9" t="s">
@@ -9052,28 +9057,28 @@
       <c r="BD24" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="BE24" s="137" t="s">
+      <c r="BE24" s="223" t="s">
         <v>164</v>
       </c>
-      <c r="BF24" s="137" t="s">
+      <c r="BF24" s="223" t="s">
         <v>164</v>
       </c>
-      <c r="BG24" s="160" t="s">
+      <c r="BG24" s="246" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="3:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="183" t="s">
+    <row r="25" spans="3:59" ht="35" customHeight="1">
+      <c r="E25" s="269" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="170" t="s">
+      <c r="F25" s="256" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="170" t="s">
+      <c r="G25" s="256" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="170"/>
-      <c r="I25" s="171"/>
+      <c r="H25" s="256"/>
+      <c r="I25" s="257"/>
       <c r="J25" s="6"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -9088,13 +9093,13 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="132" t="s">
+      <c r="T25" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="U25" s="132" t="s">
+      <c r="U25" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="V25" s="132" t="s">
+      <c r="V25" s="218" t="s">
         <v>6</v>
       </c>
       <c r="W25" s="11"/>
@@ -9104,20 +9109,20 @@
       <c r="AA25" s="11"/>
       <c r="AB25" s="11"/>
       <c r="AC25" s="4"/>
-      <c r="AD25" s="169" t="s">
+      <c r="AD25" s="255" t="s">
         <v>77</v>
       </c>
-      <c r="AE25" s="170" t="s">
+      <c r="AE25" s="256" t="s">
         <v>77</v>
       </c>
-      <c r="AF25" s="170" t="s">
+      <c r="AF25" s="256" t="s">
         <v>77</v>
       </c>
-      <c r="AG25" s="170" t="s">
+      <c r="AG25" s="256" t="s">
         <v>77</v>
       </c>
-      <c r="AH25" s="171"/>
-      <c r="AI25" s="132" t="s">
+      <c r="AH25" s="257"/>
+      <c r="AI25" s="218" t="s">
         <v>96</v>
       </c>
       <c r="AJ25" s="11" t="s">
@@ -9130,25 +9135,25 @@
         <v>97</v>
       </c>
       <c r="AM25" s="4"/>
-      <c r="AN25" s="132" t="s">
+      <c r="AN25" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="AO25" s="133" t="s">
+      <c r="AO25" s="219" t="s">
         <v>120</v>
       </c>
-      <c r="AP25" s="133" t="s">
+      <c r="AP25" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="AQ25" s="133" t="s">
+      <c r="AQ25" s="219" t="s">
         <v>121</v>
       </c>
-      <c r="AR25" s="134" t="s">
+      <c r="AR25" s="220" t="s">
         <v>121</v>
       </c>
       <c r="AS25" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="AT25" s="147" t="s">
+      <c r="AT25" s="233" t="s">
         <v>135</v>
       </c>
       <c r="AU25" s="11"/>
@@ -9172,10 +9177,10 @@
       <c r="BC25" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="BD25" s="133" t="s">
+      <c r="BD25" s="219" t="s">
         <v>164</v>
       </c>
-      <c r="BE25" s="133" t="s">
+      <c r="BE25" s="219" t="s">
         <v>163</v>
       </c>
       <c r="BF25" s="11" t="s">
@@ -9185,20 +9190,20 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="3:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="184" t="s">
+    <row r="26" spans="3:59" ht="35" customHeight="1">
+      <c r="E26" s="270" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="188" t="s">
+      <c r="F26" s="274" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="174" t="s">
+      <c r="G26" s="260" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="188" t="s">
+      <c r="H26" s="274" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="175" t="s">
+      <c r="I26" s="261" t="s">
         <v>50</v>
       </c>
       <c r="J26" s="21" t="s">
@@ -9223,13 +9228,13 @@
       <c r="Q26" s="16"/>
       <c r="R26" s="40"/>
       <c r="S26" s="15"/>
-      <c r="T26" s="132" t="s">
+      <c r="T26" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="U26" s="132" t="s">
+      <c r="U26" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="V26" s="132" t="s">
+      <c r="V26" s="218" t="s">
         <v>6</v>
       </c>
       <c r="W26" s="40"/>
@@ -9239,44 +9244,44 @@
       <c r="AA26" s="16"/>
       <c r="AB26" s="40"/>
       <c r="AC26" s="15"/>
-      <c r="AD26" s="172" t="s">
+      <c r="AD26" s="258" t="s">
         <v>73</v>
       </c>
-      <c r="AE26" s="188" t="s">
+      <c r="AE26" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AF26" s="174"/>
-      <c r="AG26" s="188"/>
-      <c r="AH26" s="175"/>
-      <c r="AI26" s="139" t="s">
+      <c r="AF26" s="260"/>
+      <c r="AG26" s="274"/>
+      <c r="AH26" s="261"/>
+      <c r="AI26" s="225" t="s">
         <v>94</v>
       </c>
       <c r="AJ26" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="AK26" s="141" t="s">
+      <c r="AK26" s="227" t="s">
         <v>60</v>
       </c>
       <c r="AL26" s="40" t="s">
         <v>95</v>
       </c>
       <c r="AM26" s="15"/>
-      <c r="AN26" s="139" t="s">
+      <c r="AN26" s="225" t="s">
         <v>120</v>
       </c>
-      <c r="AO26" s="153" t="s">
+      <c r="AO26" s="239" t="s">
         <v>120</v>
       </c>
-      <c r="AP26" s="141" t="s">
+      <c r="AP26" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="AQ26" s="153" t="s">
+      <c r="AQ26" s="239" t="s">
         <v>121</v>
       </c>
-      <c r="AR26" s="142" t="s">
+      <c r="AR26" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="AS26" s="151" t="s">
+      <c r="AS26" s="237" t="s">
         <v>135</v>
       </c>
       <c r="AT26" s="40" t="s">
@@ -9309,20 +9314,20 @@
       <c r="BC26" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="BD26" s="153" t="s">
+      <c r="BD26" s="239" t="s">
         <v>164</v>
       </c>
-      <c r="BE26" s="141" t="s">
+      <c r="BE26" s="227" t="s">
         <v>163</v>
       </c>
-      <c r="BF26" s="141" t="s">
+      <c r="BF26" s="227" t="s">
         <v>163</v>
       </c>
-      <c r="BG26" s="159" t="s">
+      <c r="BG26" s="245" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="3:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:59" ht="35" customHeight="1">
       <c r="E27" s="36" t="s">
         <v>31</v>
       </c>
@@ -9336,19 +9341,19 @@
         <v>31</v>
       </c>
       <c r="I27" s="37"/>
-      <c r="J27" s="128" t="s">
+      <c r="J27" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="K27" s="129" t="s">
+      <c r="K27" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="130" t="s">
+      <c r="L27" s="216" t="s">
         <v>61</v>
       </c>
-      <c r="M27" s="129" t="s">
+      <c r="M27" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="N27" s="131" t="s">
+      <c r="N27" s="217" t="s">
         <v>61</v>
       </c>
       <c r="O27" s="38" t="s">
@@ -9358,58 +9363,58 @@
       <c r="Q27" s="26"/>
       <c r="R27" s="3"/>
       <c r="S27" s="37"/>
-      <c r="T27" s="195" t="s">
+      <c r="T27" s="281" t="s">
         <v>73</v>
       </c>
-      <c r="U27" s="196" t="s">
+      <c r="U27" s="282" t="s">
         <v>73</v>
       </c>
       <c r="V27" s="26"/>
       <c r="W27" s="3"/>
       <c r="X27" s="37"/>
-      <c r="Y27" s="195" t="s">
+      <c r="Y27" s="281" t="s">
         <v>6</v>
       </c>
-      <c r="Z27" s="196" t="s">
+      <c r="Z27" s="282" t="s">
         <v>6</v>
       </c>
-      <c r="AA27" s="187" t="s">
+      <c r="AA27" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="AB27" s="196" t="s">
+      <c r="AB27" s="282" t="s">
         <v>6</v>
       </c>
-      <c r="AC27" s="198" t="s">
+      <c r="AC27" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="AD27" s="195" t="s">
+      <c r="AD27" s="281" t="s">
         <v>6</v>
       </c>
-      <c r="AE27" s="196" t="s">
+      <c r="AE27" s="282" t="s">
         <v>6</v>
       </c>
-      <c r="AF27" s="187" t="s">
+      <c r="AF27" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="AG27" s="196" t="s">
+      <c r="AG27" s="282" t="s">
         <v>6</v>
       </c>
-      <c r="AH27" s="198" t="s">
+      <c r="AH27" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="AI27" s="168" t="s">
+      <c r="AI27" s="254" t="s">
         <v>93</v>
       </c>
       <c r="AJ27" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AK27" s="130" t="s">
+      <c r="AK27" s="216" t="s">
         <v>88</v>
       </c>
       <c r="AL27" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AM27" s="131" t="s">
+      <c r="AM27" s="217" t="s">
         <v>89</v>
       </c>
       <c r="AN27" s="38" t="s">
@@ -9419,10 +9424,10 @@
       <c r="AP27" s="26"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="37"/>
-      <c r="AS27" s="195" t="s">
+      <c r="AS27" s="281" t="s">
         <v>134</v>
       </c>
-      <c r="AT27" s="196" t="s">
+      <c r="AT27" s="282" t="s">
         <v>134</v>
       </c>
       <c r="AU27" s="26" t="s">
@@ -9441,13 +9446,13 @@
       </c>
       <c r="BA27" s="3"/>
       <c r="BB27" s="37"/>
-      <c r="BC27" s="163" t="s">
+      <c r="BC27" s="249" t="s">
         <v>159</v>
       </c>
-      <c r="BD27" s="129" t="s">
+      <c r="BD27" s="215" t="s">
         <v>160</v>
       </c>
-      <c r="BE27" s="129" t="s">
+      <c r="BE27" s="215" t="s">
         <v>160</v>
       </c>
       <c r="BF27" s="3" t="s">
@@ -9455,7 +9460,7 @@
       </c>
       <c r="BG27" s="39"/>
     </row>
-    <row r="28" spans="3:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:59" ht="35" customHeight="1">
       <c r="E28" s="2" t="s">
         <v>47</v>
       </c>
@@ -9471,19 +9476,19 @@
       <c r="I28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J28" s="132" t="s">
+      <c r="J28" s="218" t="s">
         <v>61</v>
       </c>
-      <c r="K28" s="133" t="s">
+      <c r="K28" s="219" t="s">
         <v>61</v>
       </c>
-      <c r="L28" s="133" t="s">
+      <c r="L28" s="219" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="133" t="s">
+      <c r="M28" s="219" t="s">
         <v>61</v>
       </c>
-      <c r="N28" s="134" t="s">
+      <c r="N28" s="220" t="s">
         <v>61</v>
       </c>
       <c r="O28" s="6" t="s">
@@ -9516,34 +9521,34 @@
       <c r="X28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="Y28" s="169" t="s">
+      <c r="Y28" s="255" t="s">
         <v>6</v>
       </c>
-      <c r="Z28" s="170" t="s">
+      <c r="Z28" s="256" t="s">
         <v>6</v>
       </c>
-      <c r="AA28" s="170" t="s">
+      <c r="AA28" s="256" t="s">
         <v>6</v>
       </c>
-      <c r="AB28" s="170" t="s">
+      <c r="AB28" s="256" t="s">
         <v>6</v>
       </c>
-      <c r="AC28" s="171" t="s">
+      <c r="AC28" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="AD28" s="169" t="s">
+      <c r="AD28" s="255" t="s">
         <v>6</v>
       </c>
-      <c r="AE28" s="170" t="s">
+      <c r="AE28" s="256" t="s">
         <v>6</v>
       </c>
-      <c r="AF28" s="170" t="s">
+      <c r="AF28" s="256" t="s">
         <v>6</v>
       </c>
-      <c r="AG28" s="170" t="s">
+      <c r="AG28" s="256" t="s">
         <v>6</v>
       </c>
-      <c r="AH28" s="171" t="s">
+      <c r="AH28" s="257" t="s">
         <v>6</v>
       </c>
       <c r="AI28" s="6" t="s">
@@ -9555,11 +9560,11 @@
       <c r="AK28" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AL28" s="133" t="s">
+      <c r="AL28" s="219" t="s">
         <v>92</v>
       </c>
       <c r="AM28" s="4"/>
-      <c r="AN28" s="149" t="s">
+      <c r="AN28" s="235" t="s">
         <v>119</v>
       </c>
       <c r="AO28" s="11" t="s">
@@ -9579,7 +9584,7 @@
       <c r="AU28" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AV28" s="170" t="s">
+      <c r="AV28" s="256" t="s">
         <v>133</v>
       </c>
       <c r="AW28" s="4"/>
@@ -9588,19 +9593,19 @@
       <c r="AZ28" s="11"/>
       <c r="BA28" s="11"/>
       <c r="BB28" s="45"/>
-      <c r="BC28" s="129" t="s">
+      <c r="BC28" s="215" t="s">
         <v>160</v>
       </c>
-      <c r="BD28" s="132" t="s">
+      <c r="BD28" s="218" t="s">
         <v>160</v>
       </c>
-      <c r="BE28" s="132" t="s">
+      <c r="BE28" s="218" t="s">
         <v>160</v>
       </c>
       <c r="BF28" s="11"/>
       <c r="BG28" s="30"/>
     </row>
-    <row r="29" spans="3:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:59" ht="35" customHeight="1">
       <c r="E29" s="17" t="s">
         <v>47</v>
       </c>
@@ -9657,34 +9662,34 @@
       <c r="X29" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Y29" s="172" t="s">
+      <c r="Y29" s="258" t="s">
         <v>6</v>
       </c>
-      <c r="Z29" s="173" t="s">
+      <c r="Z29" s="259" t="s">
         <v>6</v>
       </c>
-      <c r="AA29" s="174" t="s">
+      <c r="AA29" s="260" t="s">
         <v>6</v>
       </c>
-      <c r="AB29" s="173" t="s">
+      <c r="AB29" s="259" t="s">
         <v>6</v>
       </c>
-      <c r="AC29" s="175" t="s">
+      <c r="AC29" s="261" t="s">
         <v>6</v>
       </c>
-      <c r="AD29" s="172" t="s">
+      <c r="AD29" s="258" t="s">
         <v>6</v>
       </c>
-      <c r="AE29" s="173" t="s">
+      <c r="AE29" s="259" t="s">
         <v>6</v>
       </c>
-      <c r="AF29" s="174" t="s">
+      <c r="AF29" s="260" t="s">
         <v>6</v>
       </c>
-      <c r="AG29" s="173" t="s">
+      <c r="AG29" s="259" t="s">
         <v>6</v>
       </c>
-      <c r="AH29" s="175" t="s">
+      <c r="AH29" s="261" t="s">
         <v>6</v>
       </c>
       <c r="AI29" s="21" t="s">
@@ -9696,13 +9701,13 @@
       <c r="AK29" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AL29" s="140" t="s">
+      <c r="AL29" s="226" t="s">
         <v>88</v>
       </c>
-      <c r="AM29" s="142" t="s">
+      <c r="AM29" s="228" t="s">
         <v>89</v>
       </c>
-      <c r="AN29" s="139" t="s">
+      <c r="AN29" s="225" t="s">
         <v>86</v>
       </c>
       <c r="AO29" s="8" t="s">
@@ -9729,32 +9734,32 @@
       <c r="AZ29" s="16"/>
       <c r="BA29" s="8"/>
       <c r="BB29" s="15"/>
-      <c r="BC29" s="158" t="s">
+      <c r="BC29" s="244" t="s">
         <v>159</v>
       </c>
-      <c r="BD29" s="139" t="s">
+      <c r="BD29" s="225" t="s">
         <v>159</v>
       </c>
-      <c r="BE29" s="141" t="s">
+      <c r="BE29" s="227" t="s">
         <v>160</v>
       </c>
       <c r="BF29" s="8"/>
       <c r="BG29" s="32"/>
     </row>
-    <row r="30" spans="3:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="189" t="s">
+    <row r="30" spans="3:59" ht="35" customHeight="1">
+      <c r="E30" s="275" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="190" t="s">
+      <c r="F30" s="276" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="137" t="s">
+      <c r="G30" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="190" t="s">
+      <c r="H30" s="276" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="176" t="s">
+      <c r="I30" s="262" t="s">
         <v>46</v>
       </c>
       <c r="J30" s="18" t="s">
@@ -9786,41 +9791,41 @@
       <c r="T30" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="U30" s="180" t="s">
+      <c r="U30" s="266" t="s">
         <v>74</v>
       </c>
       <c r="V30" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="W30" s="180"/>
-      <c r="X30" s="176"/>
+      <c r="W30" s="266"/>
+      <c r="X30" s="262"/>
       <c r="Y30" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="Z30" s="180" t="s">
+      <c r="Z30" s="266" t="s">
         <v>23</v>
       </c>
       <c r="AA30" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="AB30" s="180" t="s">
+      <c r="AB30" s="266" t="s">
         <v>46</v>
       </c>
-      <c r="AC30" s="176" t="s">
+      <c r="AC30" s="262" t="s">
         <v>46</v>
       </c>
       <c r="AD30" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="AE30" s="180" t="s">
+      <c r="AE30" s="266" t="s">
         <v>76</v>
       </c>
       <c r="AF30" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="AG30" s="180"/>
-      <c r="AH30" s="176"/>
-      <c r="AI30" s="164" t="s">
+      <c r="AG30" s="266"/>
+      <c r="AH30" s="262"/>
+      <c r="AI30" s="250" t="s">
         <v>86</v>
       </c>
       <c r="AJ30" s="9" t="s">
@@ -9875,26 +9880,26 @@
       <c r="BC30" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="BD30" s="136" t="s">
+      <c r="BD30" s="222" t="s">
         <v>158</v>
       </c>
-      <c r="BE30" s="136" t="s">
+      <c r="BE30" s="222" t="s">
         <v>158</v>
       </c>
       <c r="BF30" s="9"/>
       <c r="BG30" s="33"/>
     </row>
-    <row r="31" spans="3:59" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="191" t="s">
+    <row r="31" spans="3:59" ht="35" customHeight="1" thickBot="1">
+      <c r="E31" s="277" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="130" t="s">
+      <c r="F31" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="130" t="s">
+      <c r="G31" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="187" t="s">
+      <c r="H31" s="273" t="s">
         <v>46</v>
       </c>
       <c r="I31" s="4"/>
@@ -9924,45 +9929,45 @@
         <v>65</v>
       </c>
       <c r="S31" s="4"/>
-      <c r="T31" s="169" t="s">
+      <c r="T31" s="255" t="s">
         <v>74</v>
       </c>
-      <c r="U31" s="170" t="s">
+      <c r="U31" s="256" t="s">
         <v>74</v>
       </c>
-      <c r="V31" s="170" t="s">
+      <c r="V31" s="256" t="s">
         <v>74</v>
       </c>
-      <c r="W31" s="170" t="s">
+      <c r="W31" s="256" t="s">
         <v>74</v>
       </c>
-      <c r="X31" s="171"/>
-      <c r="Y31" s="169" t="s">
+      <c r="X31" s="257"/>
+      <c r="Y31" s="255" t="s">
         <v>23</v>
       </c>
-      <c r="Z31" s="170" t="s">
+      <c r="Z31" s="256" t="s">
         <v>23</v>
       </c>
-      <c r="AA31" s="170" t="s">
+      <c r="AA31" s="256" t="s">
         <v>46</v>
       </c>
-      <c r="AB31" s="170" t="s">
+      <c r="AB31" s="256" t="s">
         <v>46</v>
       </c>
-      <c r="AC31" s="171" t="s">
+      <c r="AC31" s="257" t="s">
         <v>46</v>
       </c>
-      <c r="AD31" s="169" t="s">
+      <c r="AD31" s="255" t="s">
         <v>55</v>
       </c>
-      <c r="AE31" s="170" t="s">
+      <c r="AE31" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="AF31" s="170" t="s">
+      <c r="AF31" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="AG31" s="170"/>
-      <c r="AH31" s="171"/>
+      <c r="AG31" s="256"/>
+      <c r="AH31" s="257"/>
       <c r="AI31" s="6" t="s">
         <v>85</v>
       </c>
@@ -9987,7 +9992,7 @@
         <v>118</v>
       </c>
       <c r="AR31" s="4"/>
-      <c r="AS31" s="150" t="s">
+      <c r="AS31" s="236" t="s">
         <v>119</v>
       </c>
       <c r="AT31" s="11" t="s">
@@ -10009,33 +10014,33 @@
       </c>
       <c r="BA31" s="11"/>
       <c r="BB31" s="46"/>
-      <c r="BC31" s="129" t="s">
+      <c r="BC31" s="215" t="s">
         <v>158</v>
       </c>
-      <c r="BD31" s="132" t="s">
+      <c r="BD31" s="218" t="s">
         <v>158</v>
       </c>
-      <c r="BE31" s="132" t="s">
+      <c r="BE31" s="218" t="s">
         <v>158</v>
       </c>
       <c r="BF31" s="11"/>
       <c r="BG31" s="7"/>
     </row>
-    <row r="32" spans="3:59" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="251" t="s">
+    <row r="32" spans="3:59" ht="35" customHeight="1" thickBot="1">
+      <c r="C32" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="252"/>
-      <c r="E32" s="192" t="s">
+      <c r="D32" s="175"/>
+      <c r="E32" s="278" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="193" t="s">
+      <c r="F32" s="279" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="162" t="s">
+      <c r="G32" s="248" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="194" t="s">
+      <c r="H32" s="280" t="s">
         <v>46</v>
       </c>
       <c r="I32" s="95"/>
@@ -10057,7 +10062,7 @@
       <c r="O32" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="194" t="s">
+      <c r="P32" s="280" t="s">
         <v>45</v>
       </c>
       <c r="Q32" s="93" t="s">
@@ -10065,53 +10070,53 @@
       </c>
       <c r="R32" s="123"/>
       <c r="S32" s="95"/>
-      <c r="T32" s="177" t="s">
+      <c r="T32" s="263" t="s">
         <v>73</v>
       </c>
-      <c r="U32" s="197" t="s">
+      <c r="U32" s="283" t="s">
         <v>73</v>
       </c>
-      <c r="V32" s="179" t="s">
+      <c r="V32" s="265" t="s">
         <v>73</v>
       </c>
-      <c r="W32" s="197" t="s">
+      <c r="W32" s="283" t="s">
         <v>73</v>
       </c>
-      <c r="X32" s="181" t="s">
+      <c r="X32" s="267" t="s">
         <v>73</v>
       </c>
-      <c r="Y32" s="177" t="s">
+      <c r="Y32" s="263" t="s">
         <v>23</v>
       </c>
-      <c r="Z32" s="197" t="s">
+      <c r="Z32" s="283" t="s">
         <v>23</v>
       </c>
-      <c r="AA32" s="179" t="s">
+      <c r="AA32" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="AB32" s="197" t="s">
+      <c r="AB32" s="283" t="s">
         <v>46</v>
       </c>
-      <c r="AC32" s="181" t="s">
+      <c r="AC32" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="AD32" s="177" t="s">
+      <c r="AD32" s="263" t="s">
         <v>73</v>
       </c>
-      <c r="AE32" s="197" t="s">
+      <c r="AE32" s="283" t="s">
         <v>73</v>
       </c>
-      <c r="AF32" s="179" t="s">
+      <c r="AF32" s="265" t="s">
         <v>55</v>
       </c>
-      <c r="AG32" s="197" t="s">
+      <c r="AG32" s="283" t="s">
         <v>55</v>
       </c>
-      <c r="AH32" s="181"/>
-      <c r="AI32" s="166" t="s">
+      <c r="AH32" s="267"/>
+      <c r="AI32" s="252" t="s">
         <v>82</v>
       </c>
-      <c r="AJ32" s="167" t="s">
+      <c r="AJ32" s="253" t="s">
         <v>83</v>
       </c>
       <c r="AK32" s="24" t="s">
@@ -10138,7 +10143,7 @@
       <c r="AR32" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="AS32" s="177" t="s">
+      <c r="AS32" s="263" t="s">
         <v>129</v>
       </c>
       <c r="AT32" s="35" t="s">
@@ -10162,180 +10167,185 @@
       <c r="BD32" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="BE32" s="162" t="s">
+      <c r="BE32" s="248" t="s">
         <v>158</v>
       </c>
       <c r="BF32" s="123"/>
       <c r="BG32" s="125"/>
     </row>
-    <row r="33" spans="3:59" ht="35" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="253"/>
-      <c r="D33" s="254"/>
-      <c r="E33" s="260" t="s">
+    <row r="33" spans="3:59" ht="35" customHeight="1" thickTop="1">
+      <c r="C33" s="176"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="261"/>
-      <c r="G33" s="261"/>
-      <c r="H33" s="261"/>
-      <c r="I33" s="262"/>
-      <c r="J33" s="263" t="s">
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="K33" s="261"/>
-      <c r="L33" s="261"/>
-      <c r="M33" s="261"/>
-      <c r="N33" s="262"/>
-      <c r="O33" s="263" t="s">
+      <c r="K33" s="166"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="166"/>
+      <c r="N33" s="167"/>
+      <c r="O33" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="P33" s="261"/>
-      <c r="Q33" s="261"/>
-      <c r="R33" s="261"/>
-      <c r="S33" s="264"/>
-      <c r="T33" s="268" t="s">
+      <c r="P33" s="166"/>
+      <c r="Q33" s="166"/>
+      <c r="R33" s="166"/>
+      <c r="S33" s="169"/>
+      <c r="T33" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="U33" s="242"/>
-      <c r="V33" s="242"/>
-      <c r="W33" s="242"/>
-      <c r="X33" s="243"/>
-      <c r="Y33" s="244" t="s">
+      <c r="U33" s="136"/>
+      <c r="V33" s="136"/>
+      <c r="W33" s="136"/>
+      <c r="X33" s="159"/>
+      <c r="Y33" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="Z33" s="242"/>
-      <c r="AA33" s="242"/>
-      <c r="AB33" s="242"/>
-      <c r="AC33" s="243"/>
-      <c r="AD33" s="244" t="s">
+      <c r="Z33" s="136"/>
+      <c r="AA33" s="136"/>
+      <c r="AB33" s="136"/>
+      <c r="AC33" s="159"/>
+      <c r="AD33" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="AE33" s="242"/>
-      <c r="AF33" s="242"/>
-      <c r="AG33" s="242"/>
-      <c r="AH33" s="265"/>
-      <c r="AI33" s="268" t="s">
+      <c r="AE33" s="136"/>
+      <c r="AF33" s="136"/>
+      <c r="AG33" s="136"/>
+      <c r="AH33" s="170"/>
+      <c r="AI33" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="AJ33" s="242"/>
-      <c r="AK33" s="242"/>
-      <c r="AL33" s="242"/>
-      <c r="AM33" s="243"/>
-      <c r="AN33" s="244" t="s">
+      <c r="AJ33" s="136"/>
+      <c r="AK33" s="136"/>
+      <c r="AL33" s="136"/>
+      <c r="AM33" s="159"/>
+      <c r="AN33" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="AO33" s="242"/>
-      <c r="AP33" s="242"/>
-      <c r="AQ33" s="242"/>
-      <c r="AR33" s="243"/>
-      <c r="AS33" s="244" t="s">
+      <c r="AO33" s="136"/>
+      <c r="AP33" s="136"/>
+      <c r="AQ33" s="136"/>
+      <c r="AR33" s="159"/>
+      <c r="AS33" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="AT33" s="242"/>
-      <c r="AU33" s="242"/>
-      <c r="AV33" s="242"/>
-      <c r="AW33" s="265"/>
-      <c r="AX33" s="260" t="s">
+      <c r="AT33" s="136"/>
+      <c r="AU33" s="136"/>
+      <c r="AV33" s="136"/>
+      <c r="AW33" s="170"/>
+      <c r="AX33" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="AY33" s="261"/>
-      <c r="AZ33" s="261"/>
-      <c r="BA33" s="261"/>
-      <c r="BB33" s="262"/>
-      <c r="BC33" s="263" t="s">
+      <c r="AY33" s="166"/>
+      <c r="AZ33" s="166"/>
+      <c r="BA33" s="166"/>
+      <c r="BB33" s="167"/>
+      <c r="BC33" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="BD33" s="261"/>
-      <c r="BE33" s="261"/>
-      <c r="BF33" s="261"/>
-      <c r="BG33" s="264"/>
-    </row>
-    <row r="34" spans="3:59" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="255"/>
-      <c r="D34" s="256"/>
-      <c r="E34" s="257" t="s">
+      <c r="BD33" s="166"/>
+      <c r="BE33" s="166"/>
+      <c r="BF33" s="166"/>
+      <c r="BG33" s="169"/>
+    </row>
+    <row r="34" spans="3:59" ht="35" customHeight="1" thickBot="1">
+      <c r="C34" s="178"/>
+      <c r="D34" s="179"/>
+      <c r="E34" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="258"/>
-      <c r="G34" s="258"/>
-      <c r="H34" s="258"/>
-      <c r="I34" s="258"/>
-      <c r="J34" s="258"/>
-      <c r="K34" s="258"/>
-      <c r="L34" s="258"/>
-      <c r="M34" s="258"/>
-      <c r="N34" s="258"/>
-      <c r="O34" s="258"/>
-      <c r="P34" s="258"/>
-      <c r="Q34" s="258"/>
-      <c r="R34" s="258"/>
-      <c r="S34" s="259"/>
-      <c r="T34" s="257" t="s">
+      <c r="F34" s="163"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="163"/>
+      <c r="J34" s="163"/>
+      <c r="K34" s="163"/>
+      <c r="L34" s="163"/>
+      <c r="M34" s="163"/>
+      <c r="N34" s="163"/>
+      <c r="O34" s="163"/>
+      <c r="P34" s="163"/>
+      <c r="Q34" s="163"/>
+      <c r="R34" s="163"/>
+      <c r="S34" s="164"/>
+      <c r="T34" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="U34" s="266"/>
-      <c r="V34" s="266"/>
-      <c r="W34" s="266"/>
-      <c r="X34" s="266"/>
-      <c r="Y34" s="266"/>
-      <c r="Z34" s="266"/>
-      <c r="AA34" s="266"/>
-      <c r="AB34" s="266"/>
-      <c r="AC34" s="266"/>
-      <c r="AD34" s="266"/>
-      <c r="AE34" s="266"/>
-      <c r="AF34" s="266"/>
-      <c r="AG34" s="266"/>
-      <c r="AH34" s="267"/>
-      <c r="AI34" s="257" t="s">
+      <c r="U34" s="171"/>
+      <c r="V34" s="171"/>
+      <c r="W34" s="171"/>
+      <c r="X34" s="171"/>
+      <c r="Y34" s="171"/>
+      <c r="Z34" s="171"/>
+      <c r="AA34" s="171"/>
+      <c r="AB34" s="171"/>
+      <c r="AC34" s="171"/>
+      <c r="AD34" s="171"/>
+      <c r="AE34" s="171"/>
+      <c r="AF34" s="171"/>
+      <c r="AG34" s="171"/>
+      <c r="AH34" s="172"/>
+      <c r="AI34" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="AJ34" s="266"/>
-      <c r="AK34" s="266"/>
-      <c r="AL34" s="266"/>
-      <c r="AM34" s="266"/>
-      <c r="AN34" s="266"/>
-      <c r="AO34" s="266"/>
-      <c r="AP34" s="266"/>
-      <c r="AQ34" s="266"/>
-      <c r="AR34" s="266"/>
-      <c r="AS34" s="266"/>
-      <c r="AT34" s="266"/>
-      <c r="AU34" s="266"/>
-      <c r="AV34" s="266"/>
-      <c r="AW34" s="267"/>
-      <c r="AX34" s="257" t="s">
+      <c r="AJ34" s="171"/>
+      <c r="AK34" s="171"/>
+      <c r="AL34" s="171"/>
+      <c r="AM34" s="171"/>
+      <c r="AN34" s="171"/>
+      <c r="AO34" s="171"/>
+      <c r="AP34" s="171"/>
+      <c r="AQ34" s="171"/>
+      <c r="AR34" s="171"/>
+      <c r="AS34" s="171"/>
+      <c r="AT34" s="171"/>
+      <c r="AU34" s="171"/>
+      <c r="AV34" s="171"/>
+      <c r="AW34" s="172"/>
+      <c r="AX34" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="AY34" s="258"/>
-      <c r="AZ34" s="258"/>
-      <c r="BA34" s="258"/>
-      <c r="BB34" s="258"/>
-      <c r="BC34" s="258"/>
-      <c r="BD34" s="258"/>
-      <c r="BE34" s="258"/>
-      <c r="BF34" s="258"/>
-      <c r="BG34" s="259"/>
-    </row>
-    <row r="37" spans="3:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E37" s="214"/>
+      <c r="AY34" s="163"/>
+      <c r="AZ34" s="163"/>
+      <c r="BA34" s="163"/>
+      <c r="BB34" s="163"/>
+      <c r="BC34" s="163"/>
+      <c r="BD34" s="163"/>
+      <c r="BE34" s="163"/>
+      <c r="BF34" s="163"/>
+      <c r="BG34" s="164"/>
+    </row>
+    <row r="37" spans="3:59" ht="35" customHeight="1">
+      <c r="E37" s="300"/>
       <c r="F37" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="3:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E38" s="215"/>
+    <row r="38" spans="3:59" ht="35" customHeight="1">
+      <c r="E38" s="301"/>
       <c r="F38" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="3:59" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E39" s="216"/>
+    <row r="39" spans="3:59" ht="35" customHeight="1">
+      <c r="E39" s="302"/>
       <c r="F39" t="s">
         <v>214</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C32:D34"/>
+    <mergeCell ref="E34:S34"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:S33"/>
     <mergeCell ref="AX34:BG34"/>
     <mergeCell ref="AX33:BB33"/>
     <mergeCell ref="BC33:BG33"/>
@@ -10348,15 +10358,15 @@
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="AI34:AW34"/>
     <mergeCell ref="T33:X33"/>
-    <mergeCell ref="C32:D34"/>
-    <mergeCell ref="E34:S34"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:S33"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="47" fitToWidth="2" fitToHeight="2" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10368,13 +10378,13 @@
       <selection activeCell="H6" sqref="H6:Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="52" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:52" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:52" ht="35" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:52" ht="16" thickBot="1"/>
+    <row r="3" spans="3:52" ht="35" customHeight="1" thickTop="1">
       <c r="C3" s="12"/>
       <c r="D3" s="5"/>
       <c r="E3" s="13"/>
@@ -10426,7 +10436,7 @@
       <c r="AY3" s="5"/>
       <c r="AZ3" s="31"/>
     </row>
-    <row r="4" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:52" ht="35" customHeight="1">
       <c r="C4" s="2"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -10478,7 +10488,7 @@
       <c r="AY4" s="11"/>
       <c r="AZ4" s="30"/>
     </row>
-    <row r="5" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:52" ht="35" customHeight="1">
       <c r="C5" s="17"/>
       <c r="D5" s="8"/>
       <c r="E5" s="16"/>
@@ -10530,7 +10540,7 @@
       <c r="AY5" s="8"/>
       <c r="AZ5" s="32"/>
     </row>
-    <row r="6" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:52" ht="35" customHeight="1">
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
       <c r="E6" s="19"/>
@@ -10582,7 +10592,7 @@
       <c r="AY6" s="9"/>
       <c r="AZ6" s="33"/>
     </row>
-    <row r="7" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:52" ht="35" customHeight="1">
       <c r="C7" s="2"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -10634,7 +10644,7 @@
       <c r="AY7" s="11"/>
       <c r="AZ7" s="7"/>
     </row>
-    <row r="8" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:52" ht="35" customHeight="1">
       <c r="C8" s="17"/>
       <c r="D8" s="8"/>
       <c r="E8" s="16"/>
@@ -10686,7 +10696,7 @@
       <c r="AY8" s="8"/>
       <c r="AZ8" s="32"/>
     </row>
-    <row r="9" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:52" ht="35" customHeight="1">
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="19"/>
@@ -10738,7 +10748,7 @@
       <c r="AY9" s="9"/>
       <c r="AZ9" s="33"/>
     </row>
-    <row r="10" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:52" ht="35" customHeight="1">
       <c r="C10" s="2"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10790,7 +10800,7 @@
       <c r="AY10" s="11"/>
       <c r="AZ10" s="30"/>
     </row>
-    <row r="11" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:52" ht="35" customHeight="1">
       <c r="C11" s="17"/>
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
@@ -10842,7 +10852,7 @@
       <c r="AY11" s="8"/>
       <c r="AZ11" s="32"/>
     </row>
-    <row r="12" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:52" ht="35" customHeight="1">
       <c r="C12" s="27"/>
       <c r="D12" s="28"/>
       <c r="E12" s="19"/>
@@ -10894,7 +10904,7 @@
       <c r="AY12" s="9"/>
       <c r="AZ12" s="33"/>
     </row>
-    <row r="13" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:52" ht="35" customHeight="1">
       <c r="C13" s="2"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -10946,7 +10956,7 @@
       <c r="AY13" s="11"/>
       <c r="AZ13" s="7"/>
     </row>
-    <row r="14" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:52" ht="35" customHeight="1">
       <c r="C14" s="17"/>
       <c r="D14" s="40"/>
       <c r="E14" s="16"/>
@@ -10998,7 +11008,7 @@
       <c r="AY14" s="40"/>
       <c r="AZ14" s="32"/>
     </row>
-    <row r="15" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:52" ht="35" customHeight="1">
       <c r="C15" s="36"/>
       <c r="D15" s="3"/>
       <c r="E15" s="26"/>
@@ -11050,7 +11060,7 @@
       <c r="AY15" s="3"/>
       <c r="AZ15" s="39"/>
     </row>
-    <row r="16" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:52" ht="35" customHeight="1">
       <c r="C16" s="2"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -11102,7 +11112,7 @@
       <c r="AY16" s="11"/>
       <c r="AZ16" s="30"/>
     </row>
-    <row r="17" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:52" ht="35" customHeight="1">
       <c r="C17" s="17"/>
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
@@ -11154,7 +11164,7 @@
       <c r="AY17" s="8"/>
       <c r="AZ17" s="32"/>
     </row>
-    <row r="18" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:52" ht="35" customHeight="1">
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
       <c r="E18" s="19"/>
@@ -11206,7 +11216,7 @@
       <c r="AY18" s="9"/>
       <c r="AZ18" s="33"/>
     </row>
-    <row r="19" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:52" ht="35" customHeight="1">
       <c r="C19" s="2"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -11258,7 +11268,7 @@
       <c r="AY19" s="11"/>
       <c r="AZ19" s="7"/>
     </row>
-    <row r="20" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:52" ht="35" customHeight="1">
       <c r="C20" s="17"/>
       <c r="D20" s="8"/>
       <c r="E20" s="16"/>
@@ -11310,7 +11320,7 @@
       <c r="AY20" s="8"/>
       <c r="AZ20" s="32"/>
     </row>
-    <row r="21" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:52" ht="35" customHeight="1">
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
       <c r="E21" s="19"/>
@@ -11362,7 +11372,7 @@
       <c r="AY21" s="9"/>
       <c r="AZ21" s="33"/>
     </row>
-    <row r="22" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:52" ht="35" customHeight="1">
       <c r="C22" s="2"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -11414,7 +11424,7 @@
       <c r="AY22" s="11"/>
       <c r="AZ22" s="30"/>
     </row>
-    <row r="23" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:52" ht="35" customHeight="1">
       <c r="C23" s="17"/>
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
@@ -11466,7 +11476,7 @@
       <c r="AY23" s="8"/>
       <c r="AZ23" s="32"/>
     </row>
-    <row r="24" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:52" ht="35" customHeight="1">
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="19"/>
@@ -11518,7 +11528,7 @@
       <c r="AY24" s="9"/>
       <c r="AZ24" s="33"/>
     </row>
-    <row r="25" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:52" ht="35" customHeight="1">
       <c r="C25" s="2"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -11570,7 +11580,7 @@
       <c r="AY25" s="11"/>
       <c r="AZ25" s="7"/>
     </row>
-    <row r="26" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:52" ht="35" customHeight="1">
       <c r="C26" s="17"/>
       <c r="D26" s="40"/>
       <c r="E26" s="16"/>
@@ -11622,7 +11632,7 @@
       <c r="AY26" s="40"/>
       <c r="AZ26" s="32"/>
     </row>
-    <row r="27" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:52" ht="35" customHeight="1">
       <c r="C27" s="36"/>
       <c r="D27" s="3"/>
       <c r="E27" s="26"/>
@@ -11674,7 +11684,7 @@
       <c r="AY27" s="3"/>
       <c r="AZ27" s="39"/>
     </row>
-    <row r="28" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:52" ht="35" customHeight="1">
       <c r="C28" s="2"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -11726,7 +11736,7 @@
       <c r="AY28" s="11"/>
       <c r="AZ28" s="30"/>
     </row>
-    <row r="29" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:52" ht="35" customHeight="1">
       <c r="C29" s="17"/>
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
@@ -11778,7 +11788,7 @@
       <c r="AY29" s="8"/>
       <c r="AZ29" s="32"/>
     </row>
-    <row r="30" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:52" ht="35" customHeight="1">
       <c r="C30" s="27"/>
       <c r="D30" s="28"/>
       <c r="E30" s="19"/>
@@ -11830,7 +11840,7 @@
       <c r="AY30" s="9"/>
       <c r="AZ30" s="33"/>
     </row>
-    <row r="31" spans="3:52" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:52" ht="35" customHeight="1">
       <c r="C31" s="2"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
@@ -11882,7 +11892,7 @@
       <c r="AY31" s="11"/>
       <c r="AZ31" s="7"/>
     </row>
-    <row r="32" spans="3:52" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:52" ht="35" customHeight="1" thickBot="1">
       <c r="C32" s="29"/>
       <c r="D32" s="35"/>
       <c r="E32" s="24"/>
@@ -11934,10 +11944,15 @@
       <c r="AY32" s="35"/>
       <c r="AZ32" s="34"/>
     </row>
-    <row r="33" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="16" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11948,51 +11963,51 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C1" s="281" t="s">
+    <row r="1" spans="1:13">
+      <c r="C1" s="192" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
-      <c r="K2" s="281"/>
-    </row>
-    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="199" t="s">
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" thickBot="1"/>
+    <row r="4" spans="1:13" ht="16" thickTop="1">
+      <c r="C4" s="285" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="200" t="s">
+      <c r="D4" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="200" t="s">
+      <c r="E4" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="200" t="s">
+      <c r="F4" s="286" t="s">
         <v>167</v>
       </c>
-      <c r="G4" s="200" t="s">
+      <c r="G4" s="286" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="56"/>
@@ -12000,8 +12015,8 @@
       <c r="J4" s="56"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="272" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="183" t="s">
         <v>185</v>
       </c>
       <c r="C5" s="59"/>
@@ -12009,28 +12024,28 @@
       <c r="E5" s="57"/>
       <c r="F5" s="57"/>
       <c r="G5" s="57"/>
-      <c r="H5" s="269" t="s">
+      <c r="H5" s="180" t="s">
         <v>168</v>
       </c>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="271"/>
-    </row>
-    <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="273"/>
-      <c r="C6" s="202" t="s">
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="182"/>
+    </row>
+    <row r="6" spans="1:13" ht="16" thickBot="1">
+      <c r="A6" s="184"/>
+      <c r="C6" s="288" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="201" t="s">
+      <c r="D6" s="287" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="201" t="s">
+      <c r="E6" s="287" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="201" t="s">
+      <c r="F6" s="287" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="201" t="s">
+      <c r="G6" s="287" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="58"/>
@@ -12038,47 +12053,47 @@
       <c r="J6" s="58"/>
       <c r="K6" s="62"/>
     </row>
-    <row r="7" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="273"/>
-    </row>
-    <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="273"/>
-    </row>
-    <row r="9" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="273"/>
+    <row r="7" spans="1:13" ht="16" thickTop="1">
+      <c r="A7" s="184"/>
+    </row>
+    <row r="8" spans="1:13" ht="16" thickBot="1">
+      <c r="A8" s="184"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" thickTop="1">
+      <c r="A9" s="184"/>
       <c r="C9" s="53"/>
       <c r="D9" s="56"/>
       <c r="E9" s="56"/>
-      <c r="F9" s="200" t="s">
+      <c r="F9" s="286" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="200" t="s">
+      <c r="G9" s="286" t="s">
         <v>171</v>
       </c>
-      <c r="H9" s="200" t="s">
+      <c r="H9" s="286" t="s">
         <v>172</v>
       </c>
-      <c r="I9" s="200" t="s">
+      <c r="I9" s="286" t="s">
         <v>173</v>
       </c>
-      <c r="J9" s="200" t="s">
+      <c r="J9" s="286" t="s">
         <v>174</v>
       </c>
       <c r="K9" s="61" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="273"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="184"/>
       <c r="C10" s="60" t="s">
         <v>169</v>
       </c>
       <c r="D10" s="57"/>
       <c r="E10" s="57"/>
-      <c r="F10" s="204" t="s">
+      <c r="F10" s="290" t="s">
         <v>170</v>
       </c>
-      <c r="G10" s="204" t="s">
+      <c r="G10" s="290" t="s">
         <v>171</v>
       </c>
       <c r="H10" s="57" t="s">
@@ -12098,12 +12113,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="273"/>
+    <row r="11" spans="1:13" ht="16" thickBot="1">
+      <c r="A11" s="184"/>
       <c r="C11" s="54"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
-      <c r="F11" s="201" t="s">
+      <c r="F11" s="287" t="s">
         <v>170</v>
       </c>
       <c r="G11" s="58" t="s">
@@ -12126,22 +12141,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="273"/>
+    <row r="12" spans="1:13" ht="16" thickTop="1">
+      <c r="A12" s="184"/>
       <c r="M12">
         <f>COUNTIF(C4:G6,"*")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="273"/>
+    <row r="13" spans="1:13" ht="16" thickBot="1">
+      <c r="A13" s="184"/>
       <c r="M13">
         <f>SUM(M10:M12)</f>
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="273"/>
+    <row r="14" spans="1:13" ht="16" thickTop="1">
+      <c r="A14" s="184"/>
       <c r="C14" s="53" t="s">
         <v>176</v>
       </c>
@@ -12151,27 +12166,27 @@
       <c r="E14" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="200" t="s">
+      <c r="F14" s="286" t="s">
         <v>179</v>
       </c>
-      <c r="G14" s="200" t="s">
+      <c r="G14" s="286" t="s">
         <v>180</v>
       </c>
       <c r="H14" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="I14" s="200" t="s">
+      <c r="I14" s="286" t="s">
         <v>181</v>
       </c>
       <c r="J14" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="205" t="s">
+      <c r="K14" s="291" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="273"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="184"/>
       <c r="C15" s="60" t="s">
         <v>176</v>
       </c>
@@ -12200,8 +12215,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="273"/>
+    <row r="16" spans="1:13" ht="16" thickBot="1">
+      <c r="A16" s="184"/>
       <c r="C16" s="54" t="s">
         <v>176</v>
       </c>
@@ -12226,18 +12241,18 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="273"/>
-    </row>
-    <row r="18" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="273"/>
-      <c r="C18" s="206" t="s">
+    <row r="17" spans="1:11" ht="17" thickTop="1" thickBot="1">
+      <c r="A17" s="184"/>
+    </row>
+    <row r="18" spans="1:11" ht="16" thickTop="1">
+      <c r="A18" s="184"/>
+      <c r="C18" s="292" t="s">
         <v>183</v>
       </c>
       <c r="D18" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="200" t="s">
+      <c r="E18" s="286" t="s">
         <v>184</v>
       </c>
       <c r="F18" s="56"/>
@@ -12247,8 +12262,8 @@
       <c r="J18" s="56"/>
       <c r="K18" s="64"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="274"/>
+    <row r="19" spans="1:11">
+      <c r="A19" s="185"/>
       <c r="C19" s="60" t="s">
         <v>183</v>
       </c>
@@ -12265,7 +12280,7 @@
       <c r="J19" s="57"/>
       <c r="K19" s="65"/>
     </row>
-    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="16" thickBot="1">
       <c r="C20" s="54" t="s">
         <v>182</v>
       </c>
@@ -12282,54 +12297,54 @@
       <c r="J20" s="58"/>
       <c r="K20" s="66"/>
     </row>
-    <row r="21" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C24" s="275" t="s">
+    <row r="21" spans="1:11" ht="16" thickTop="1"/>
+    <row r="24" spans="1:11">
+      <c r="C24" s="186" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="276"/>
-      <c r="E24" s="276"/>
-      <c r="F24" s="276"/>
-      <c r="G24" s="276"/>
-      <c r="H24" s="276"/>
-      <c r="I24" s="276"/>
-      <c r="J24" s="276"/>
-      <c r="K24" s="277"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C25" s="278"/>
-      <c r="D25" s="279"/>
-      <c r="E25" s="279"/>
-      <c r="F25" s="279"/>
-      <c r="G25" s="279"/>
-      <c r="H25" s="279"/>
-      <c r="I25" s="279"/>
-      <c r="J25" s="279"/>
-      <c r="K25" s="280"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C27" s="275" t="s">
+      <c r="D24" s="187"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="187"/>
+      <c r="K24" s="188"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="C25" s="189"/>
+      <c r="D25" s="190"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="190"/>
+      <c r="H25" s="190"/>
+      <c r="I25" s="190"/>
+      <c r="J25" s="190"/>
+      <c r="K25" s="191"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="C27" s="186" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="276"/>
-      <c r="E27" s="276"/>
-      <c r="F27" s="276"/>
-      <c r="G27" s="276"/>
-      <c r="H27" s="276"/>
-      <c r="I27" s="276"/>
-      <c r="J27" s="276"/>
-      <c r="K27" s="277"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C28" s="278"/>
-      <c r="D28" s="279"/>
-      <c r="E28" s="279"/>
-      <c r="F28" s="279"/>
-      <c r="G28" s="279"/>
-      <c r="H28" s="279"/>
-      <c r="I28" s="279"/>
-      <c r="J28" s="279"/>
-      <c r="K28" s="280"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="188"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="C28" s="189"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="190"/>
+      <c r="I28" s="190"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12342,6 +12357,11 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12353,66 +12373,66 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C1" s="288" t="s">
+    <row r="1" spans="1:14">
+      <c r="C1" s="199" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="289"/>
-      <c r="I1" s="289"/>
-      <c r="J1" s="289"/>
-      <c r="K1" s="290"/>
-    </row>
-    <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="291"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292"/>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="293"/>
-    </row>
-    <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C4" s="282" t="s">
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="201"/>
+    </row>
+    <row r="2" spans="1:14" ht="16" thickBot="1">
+      <c r="C2" s="202"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="204"/>
+    </row>
+    <row r="3" spans="1:14" ht="16" thickBot="1"/>
+    <row r="4" spans="1:14">
+      <c r="C4" s="193" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="283"/>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283"/>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283"/>
-      <c r="K4" s="284"/>
-    </row>
-    <row r="5" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="285"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286"/>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286"/>
-      <c r="K5" s="287"/>
-    </row>
-    <row r="7" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="272" t="s">
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="195"/>
+    </row>
+    <row r="5" spans="1:14" ht="16" thickBot="1">
+      <c r="C5" s="196"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="198"/>
+    </row>
+    <row r="7" spans="1:14" ht="16" thickBot="1"/>
+    <row r="8" spans="1:14" ht="16" thickTop="1">
+      <c r="A8" s="183" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="199" t="s">
+      <c r="C8" s="285" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="200" t="s">
+      <c r="D8" s="286" t="s">
         <v>189</v>
       </c>
       <c r="E8" s="56" t="s">
@@ -12422,10 +12442,10 @@
         <v>189</v>
       </c>
       <c r="G8" s="56"/>
-      <c r="H8" s="200" t="s">
+      <c r="H8" s="286" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="200" t="s">
+      <c r="I8" s="286" t="s">
         <v>191</v>
       </c>
       <c r="J8" s="56" t="s">
@@ -12435,19 +12455,19 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="273"/>
-      <c r="C9" s="207" t="s">
+    <row r="9" spans="1:14">
+      <c r="A9" s="184"/>
+      <c r="C9" s="293" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="203" t="s">
+      <c r="D9" s="289" t="s">
         <v>189</v>
       </c>
       <c r="E9" s="57" t="s">
         <v>189</v>
       </c>
       <c r="F9" s="57"/>
-      <c r="G9" s="203" t="s">
+      <c r="G9" s="289" t="s">
         <v>190</v>
       </c>
       <c r="H9" s="57" t="s">
@@ -12463,36 +12483,36 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="273"/>
-      <c r="C10" s="202" t="s">
+    <row r="10" spans="1:14" ht="16" thickBot="1">
+      <c r="A10" s="184"/>
+      <c r="C10" s="288" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="201" t="s">
+      <c r="D10" s="287" t="s">
         <v>189</v>
       </c>
       <c r="E10" s="58" t="s">
         <v>189</v>
       </c>
       <c r="F10" s="58"/>
-      <c r="G10" s="201" t="s">
+      <c r="G10" s="287" t="s">
         <v>190</v>
       </c>
-      <c r="H10" s="201" t="s">
+      <c r="H10" s="287" t="s">
         <v>131</v>
       </c>
-      <c r="I10" s="201" t="s">
+      <c r="I10" s="287" t="s">
         <v>102</v>
       </c>
       <c r="J10" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="K10" s="208" t="s">
+      <c r="K10" s="294" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="273"/>
+    <row r="11" spans="1:14" ht="16" thickTop="1">
+      <c r="A11" s="184"/>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
       <c r="E11" s="77"/>
@@ -12507,8 +12527,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="273"/>
+    <row r="12" spans="1:14" ht="16" thickBot="1">
+      <c r="A12" s="184"/>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
       <c r="E12" s="77"/>
@@ -12519,8 +12539,8 @@
       <c r="J12" s="77"/>
       <c r="K12" s="77"/>
     </row>
-    <row r="13" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="273"/>
+    <row r="13" spans="1:14" ht="16" thickTop="1">
+      <c r="A13" s="184"/>
       <c r="C13" s="53" t="s">
         <v>103</v>
       </c>
@@ -12539,18 +12559,18 @@
       <c r="H13" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="I13" s="200" t="s">
+      <c r="I13" s="286" t="s">
         <v>196</v>
       </c>
-      <c r="J13" s="200" t="s">
+      <c r="J13" s="286" t="s">
         <v>197</v>
       </c>
       <c r="K13" s="49" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="273"/>
+    <row r="14" spans="1:14">
+      <c r="A14" s="184"/>
       <c r="C14" s="60" t="s">
         <v>193</v>
       </c>
@@ -12569,22 +12589,22 @@
       <c r="H14" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="I14" s="203" t="s">
+      <c r="I14" s="289" t="s">
         <v>197</v>
       </c>
-      <c r="J14" s="203" t="s">
+      <c r="J14" s="289" t="s">
         <v>196</v>
       </c>
-      <c r="K14" s="211" t="s">
+      <c r="K14" s="297" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="273"/>
-      <c r="C15" s="209" t="s">
+    <row r="15" spans="1:14" ht="16" thickBot="1">
+      <c r="A15" s="184"/>
+      <c r="C15" s="295" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="210" t="s">
+      <c r="D15" s="296" t="s">
         <v>106</v>
       </c>
       <c r="E15" s="58" t="s">
@@ -12597,7 +12617,7 @@
         <v>102</v>
       </c>
       <c r="H15" s="58"/>
-      <c r="I15" s="201" t="s">
+      <c r="I15" s="287" t="s">
         <v>157</v>
       </c>
       <c r="J15" s="58" t="s">
@@ -12607,8 +12627,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="273"/>
+    <row r="16" spans="1:14" ht="16" thickTop="1">
+      <c r="A16" s="184"/>
       <c r="C16" s="77"/>
       <c r="D16" s="77"/>
       <c r="E16" s="77"/>
@@ -12619,8 +12639,8 @@
       <c r="J16" s="77"/>
       <c r="K16" s="77"/>
     </row>
-    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="273"/>
+    <row r="17" spans="1:11" ht="16" thickBot="1">
+      <c r="A17" s="184"/>
       <c r="C17" s="77"/>
       <c r="D17" s="77"/>
       <c r="E17" s="77"/>
@@ -12631,15 +12651,15 @@
       <c r="J17" s="77"/>
       <c r="K17" s="77"/>
     </row>
-    <row r="18" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="273"/>
+    <row r="18" spans="1:11" ht="16" thickTop="1">
+      <c r="A18" s="184"/>
       <c r="C18" s="53" t="s">
         <v>196</v>
       </c>
       <c r="D18" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="E18" s="200" t="s">
+      <c r="E18" s="286" t="s">
         <v>198</v>
       </c>
       <c r="F18" s="56" t="s">
@@ -12655,25 +12675,25 @@
         <v>198</v>
       </c>
       <c r="J18" s="56"/>
-      <c r="K18" s="212" t="s">
+      <c r="K18" s="298" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="273"/>
+    <row r="19" spans="1:11">
+      <c r="A19" s="184"/>
       <c r="C19" s="60" t="s">
         <v>197</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="E19" s="203" t="s">
+      <c r="E19" s="289" t="s">
         <v>199</v>
       </c>
       <c r="F19" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="G19" s="203" t="s">
+      <c r="G19" s="289" t="s">
         <v>201</v>
       </c>
       <c r="H19" s="57" t="s">
@@ -12685,28 +12705,28 @@
       <c r="J19" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="K19" s="211" t="s">
+      <c r="K19" s="297" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="273"/>
+    <row r="20" spans="1:11" ht="16" thickBot="1">
+      <c r="A20" s="184"/>
       <c r="C20" s="54" t="s">
         <v>196</v>
       </c>
       <c r="D20" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="E20" s="201" t="s">
+      <c r="E20" s="287" t="s">
         <v>200</v>
       </c>
       <c r="F20" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="G20" s="201" t="s">
+      <c r="G20" s="287" t="s">
         <v>198</v>
       </c>
-      <c r="H20" s="201" t="s">
+      <c r="H20" s="287" t="s">
         <v>199</v>
       </c>
       <c r="I20" s="58" t="s">
@@ -12715,8 +12735,8 @@
       <c r="J20" s="58"/>
       <c r="K20" s="52"/>
     </row>
-    <row r="21" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="273"/>
+    <row r="21" spans="1:11" ht="17" thickTop="1" thickBot="1">
+      <c r="A21" s="184"/>
       <c r="C21" s="77"/>
       <c r="D21" s="77"/>
       <c r="E21" s="77"/>
@@ -12727,19 +12747,19 @@
       <c r="J21" s="77"/>
       <c r="K21" s="77"/>
     </row>
-    <row r="22" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="273"/>
-      <c r="C22" s="206" t="s">
+    <row r="22" spans="1:11" ht="16" thickTop="1">
+      <c r="A22" s="184"/>
+      <c r="C22" s="292" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="56" t="s">
         <v>203</v>
       </c>
       <c r="E22" s="56"/>
-      <c r="F22" s="200" t="s">
+      <c r="F22" s="286" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="200" t="s">
+      <c r="G22" s="286" t="s">
         <v>138</v>
       </c>
       <c r="H22" s="56" t="s">
@@ -12753,9 +12773,9 @@
       </c>
       <c r="K22" s="78"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="273"/>
-      <c r="C23" s="213" t="s">
+    <row r="23" spans="1:11">
+      <c r="A23" s="184"/>
+      <c r="C23" s="299" t="s">
         <v>203</v>
       </c>
       <c r="D23" s="57" t="s">
@@ -12764,10 +12784,10 @@
       <c r="E23" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="F23" s="203" t="s">
+      <c r="F23" s="289" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="203" t="s">
+      <c r="G23" s="289" t="s">
         <v>138</v>
       </c>
       <c r="H23" s="57" t="s">
@@ -12783,19 +12803,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="274"/>
-      <c r="C24" s="209" t="s">
+    <row r="24" spans="1:11" ht="16" thickBot="1">
+      <c r="A24" s="185"/>
+      <c r="C24" s="295" t="s">
         <v>203</v>
       </c>
-      <c r="D24" s="201" t="s">
+      <c r="D24" s="287" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="58"/>
-      <c r="F24" s="201" t="s">
+      <c r="F24" s="287" t="s">
         <v>138</v>
       </c>
-      <c r="G24" s="201" t="s">
+      <c r="G24" s="287" t="s">
         <v>142</v>
       </c>
       <c r="H24" s="58" t="s">
@@ -12809,30 +12829,30 @@
       </c>
       <c r="K24" s="79"/>
     </row>
-    <row r="25" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C27" s="275" t="s">
+    <row r="25" spans="1:11" ht="16" thickTop="1"/>
+    <row r="27" spans="1:11">
+      <c r="C27" s="186" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="276"/>
-      <c r="E27" s="276"/>
-      <c r="F27" s="276"/>
-      <c r="G27" s="276"/>
-      <c r="H27" s="276"/>
-      <c r="I27" s="276"/>
-      <c r="J27" s="276"/>
-      <c r="K27" s="277"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C28" s="278"/>
-      <c r="D28" s="279"/>
-      <c r="E28" s="279"/>
-      <c r="F28" s="279"/>
-      <c r="G28" s="279"/>
-      <c r="H28" s="279"/>
-      <c r="I28" s="279"/>
-      <c r="J28" s="279"/>
-      <c r="K28" s="280"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="188"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="C28" s="189"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="190"/>
+      <c r="I28" s="190"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12843,6 +12863,11 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12854,10 +12879,10 @@
       <selection activeCell="B3" sqref="B3:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="16" thickBot="1"/>
+    <row r="3" spans="2:10" ht="16" thickTop="1">
       <c r="B3" s="47"/>
       <c r="C3" s="56"/>
       <c r="D3" s="56"/>
@@ -12868,7 +12893,7 @@
       <c r="I3" s="56"/>
       <c r="J3" s="49"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="59"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -12879,7 +12904,7 @@
       <c r="I4" s="57"/>
       <c r="J4" s="63"/>
     </row>
-    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="16" thickBot="1">
       <c r="B5" s="51"/>
       <c r="C5" s="58"/>
       <c r="D5" s="58"/>
@@ -12890,7 +12915,7 @@
       <c r="I5" s="58"/>
       <c r="J5" s="52"/>
     </row>
-    <row r="6" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="16" thickTop="1">
       <c r="B6" s="77"/>
       <c r="C6" s="77"/>
       <c r="D6" s="77"/>
@@ -12901,7 +12926,7 @@
       <c r="I6" s="77"/>
       <c r="J6" s="77"/>
     </row>
-    <row r="7" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="16" thickBot="1">
       <c r="B7" s="77"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
@@ -12912,7 +12937,7 @@
       <c r="I7" s="77"/>
       <c r="J7" s="77"/>
     </row>
-    <row r="8" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="16" thickTop="1">
       <c r="B8" s="53"/>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
@@ -12923,7 +12948,7 @@
       <c r="I8" s="56"/>
       <c r="J8" s="49"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="60"/>
       <c r="C9" s="57"/>
       <c r="D9" s="57"/>
@@ -12934,7 +12959,7 @@
       <c r="I9" s="57"/>
       <c r="J9" s="63"/>
     </row>
-    <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="16" thickBot="1">
       <c r="B10" s="54"/>
       <c r="C10" s="58"/>
       <c r="D10" s="58"/>
@@ -12945,7 +12970,7 @@
       <c r="I10" s="58"/>
       <c r="J10" s="52"/>
     </row>
-    <row r="11" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="16" thickTop="1">
       <c r="B11" s="77"/>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
@@ -12956,7 +12981,7 @@
       <c r="I11" s="77"/>
       <c r="J11" s="77"/>
     </row>
-    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="16" thickBot="1">
       <c r="B12" s="77"/>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
@@ -12967,7 +12992,7 @@
       <c r="I12" s="77"/>
       <c r="J12" s="77"/>
     </row>
-    <row r="13" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" ht="16" thickTop="1">
       <c r="B13" s="53"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
@@ -12978,7 +13003,7 @@
       <c r="I13" s="56"/>
       <c r="J13" s="49"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="60"/>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
@@ -12989,7 +13014,7 @@
       <c r="I14" s="57"/>
       <c r="J14" s="63"/>
     </row>
-    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="16" thickBot="1">
       <c r="B15" s="54"/>
       <c r="C15" s="58"/>
       <c r="D15" s="58"/>
@@ -13000,7 +13025,7 @@
       <c r="I15" s="58"/>
       <c r="J15" s="52"/>
     </row>
-    <row r="16" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="17" thickTop="1" thickBot="1">
       <c r="B16" s="77"/>
       <c r="C16" s="77"/>
       <c r="D16" s="77"/>
@@ -13011,7 +13036,7 @@
       <c r="I16" s="77"/>
       <c r="J16" s="77"/>
     </row>
-    <row r="17" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="16" thickTop="1">
       <c r="B17" s="53"/>
       <c r="C17" s="56"/>
       <c r="D17" s="56"/>
@@ -13022,7 +13047,7 @@
       <c r="I17" s="56"/>
       <c r="J17" s="78"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="60"/>
       <c r="C18" s="57"/>
       <c r="D18" s="57"/>
@@ -13033,7 +13058,7 @@
       <c r="I18" s="57"/>
       <c r="J18" s="65"/>
     </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="16" thickBot="1">
       <c r="B19" s="54"/>
       <c r="C19" s="58"/>
       <c r="D19" s="58"/>
@@ -13044,7 +13069,7 @@
       <c r="I19" s="58"/>
       <c r="J19" s="79"/>
     </row>
-    <row r="20" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="16" thickTop="1">
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="48"/>
@@ -13054,7 +13079,7 @@
       <c r="H20" s="48"/>
       <c r="I20" s="48"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
@@ -13066,6 +13091,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13073,32 +13103,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="2:19" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="300" t="s">
+    <row r="1" spans="2:19" ht="35" customHeight="1">
+      <c r="D1" s="211" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
-      <c r="L1" s="301"/>
-      <c r="M1" s="302"/>
-    </row>
-    <row r="2" spans="2:19" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:19" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="294" t="s">
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="213"/>
+    </row>
+    <row r="2" spans="2:19" ht="35" customHeight="1" thickBot="1"/>
+    <row r="3" spans="2:19" ht="35" customHeight="1">
+      <c r="B3" s="205" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="295"/>
+      <c r="C3" s="206"/>
       <c r="E3" s="67" t="s">
         <v>197</v>
       </c>
@@ -13113,9 +13143,9 @@
       </c>
       <c r="I3" s="70"/>
     </row>
-    <row r="4" spans="2:19" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="296"/>
-      <c r="C4" s="297"/>
+    <row r="4" spans="2:19" ht="35" customHeight="1">
+      <c r="B4" s="207"/>
+      <c r="C4" s="208"/>
       <c r="E4" s="71" t="s">
         <v>197</v>
       </c>
@@ -13132,9 +13162,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="296"/>
-      <c r="C5" s="297"/>
+    <row r="5" spans="2:19" ht="35" customHeight="1" thickBot="1">
+      <c r="B5" s="207"/>
+      <c r="C5" s="208"/>
       <c r="E5" s="92"/>
       <c r="F5" s="3"/>
       <c r="G5" s="93" t="s">
@@ -13151,13 +13181,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="296"/>
-      <c r="C6" s="297"/>
+    <row r="6" spans="2:19" ht="35" customHeight="1">
+      <c r="B6" s="207"/>
+      <c r="C6" s="208"/>
       <c r="E6" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="116" t="s">
+      <c r="F6" s="303" t="s">
         <v>199</v>
       </c>
       <c r="G6" s="117" t="s">
@@ -13170,9 +13200,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="296"/>
-      <c r="C7" s="297"/>
+    <row r="7" spans="2:19" ht="35" customHeight="1">
+      <c r="B7" s="207"/>
+      <c r="C7" s="208"/>
       <c r="E7" s="119" t="s">
         <v>199</v>
       </c>
@@ -13189,9 +13219,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="298"/>
-      <c r="C8" s="299"/>
+    <row r="8" spans="2:19" ht="35" customHeight="1" thickBot="1">
+      <c r="B8" s="209"/>
+      <c r="C8" s="210"/>
       <c r="E8" s="73" t="s">
         <v>191</v>
       </c>
@@ -13206,12 +13236,12 @@
       </c>
       <c r="I8" s="76"/>
     </row>
-    <row r="9" spans="2:19" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:19" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="294" t="s">
+    <row r="9" spans="2:19" ht="35" customHeight="1" thickBot="1"/>
+    <row r="10" spans="2:19" ht="35" customHeight="1">
+      <c r="B10" s="205" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="295"/>
+      <c r="C10" s="206"/>
       <c r="E10" s="67" t="s">
         <v>176</v>
       </c>
@@ -13237,9 +13267,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="296"/>
-      <c r="C11" s="297"/>
+    <row r="11" spans="2:19" ht="35" customHeight="1">
+      <c r="B11" s="207"/>
+      <c r="C11" s="208"/>
       <c r="E11" s="71" t="s">
         <v>177</v>
       </c>
@@ -13259,9 +13289,9 @@
       <c r="M11" s="110"/>
       <c r="N11" s="72"/>
     </row>
-    <row r="12" spans="2:19" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="296"/>
-      <c r="C12" s="297"/>
+    <row r="12" spans="2:19" ht="35" customHeight="1" thickBot="1">
+      <c r="B12" s="207"/>
+      <c r="C12" s="208"/>
       <c r="E12" s="92" t="s">
         <v>177</v>
       </c>
@@ -13287,9 +13317,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="296"/>
-      <c r="C13" s="297"/>
+    <row r="13" spans="2:19" ht="35" customHeight="1">
+      <c r="B13" s="207"/>
+      <c r="C13" s="208"/>
       <c r="E13" s="96" t="s">
         <v>183</v>
       </c>
@@ -13315,9 +13345,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="296"/>
-      <c r="C14" s="297"/>
+    <row r="14" spans="2:19" ht="35" customHeight="1">
+      <c r="B14" s="207"/>
+      <c r="C14" s="208"/>
       <c r="E14" s="84" t="s">
         <v>209</v>
       </c>
@@ -13343,9 +13373,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="298"/>
-      <c r="C15" s="299"/>
+    <row r="15" spans="2:19" ht="35" customHeight="1" thickBot="1">
+      <c r="B15" s="209"/>
+      <c r="C15" s="210"/>
       <c r="E15" s="87"/>
       <c r="F15" s="88" t="s">
         <v>181</v>
@@ -13379,5 +13409,10 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>